--- a/raw_data/20200818_saline/20200818_Sensor1_Test_44.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_44.xlsx
@@ -1,479 +1,895 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAEA3CC-77A6-4AFC-80F4-7FBA7FDEEC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>38888.574064</v>
       </c>
@@ -481,285 +897,285 @@
         <v>10.802382</v>
       </c>
       <c r="C2" s="1">
-        <v>906.482000</v>
+        <v>906.48199999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>-180.508000</v>
+        <v>-180.50800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>38898.999037</v>
+        <v>38898.999037000001</v>
       </c>
       <c r="G2" s="1">
-        <v>10.805278</v>
+        <v>10.805277999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>921.011000</v>
+        <v>921.01099999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-153.780000</v>
+        <v>-153.78</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>38909.221558</v>
+        <v>38909.221557999997</v>
       </c>
       <c r="L2" s="1">
-        <v>10.808117</v>
+        <v>10.808116999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>942.368000</v>
+        <v>942.36800000000005</v>
       </c>
       <c r="N2" s="1">
-        <v>-112.932000</v>
+        <v>-112.932</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>38919.414465</v>
+        <v>38919.414465000002</v>
       </c>
       <c r="Q2" s="1">
         <v>10.810948</v>
       </c>
       <c r="R2" s="1">
-        <v>949.260000</v>
+        <v>949.26</v>
       </c>
       <c r="S2" s="1">
-        <v>-99.200200</v>
+        <v>-99.200199999999995</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>38929.959763</v>
+        <v>38929.959762999999</v>
       </c>
       <c r="V2" s="1">
-        <v>10.813878</v>
+        <v>10.813878000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>956.774000</v>
+        <v>956.774</v>
       </c>
       <c r="X2" s="1">
-        <v>-86.486400</v>
+        <v>-86.486400000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>38940.038458</v>
+        <v>38940.038458000003</v>
       </c>
       <c r="AA2" s="1">
         <v>10.816677</v>
       </c>
       <c r="AB2" s="1">
-        <v>965.251000</v>
+        <v>965.25099999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.418900</v>
+        <v>-76.418899999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>38950.305149</v>
       </c>
       <c r="AF2" s="1">
-        <v>10.819529</v>
+        <v>10.819528999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>970.592000</v>
+        <v>970.59199999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.683500</v>
+        <v>-74.683499999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>38960.700799</v>
+        <v>38960.700798999998</v>
       </c>
       <c r="AK2" s="1">
         <v>10.822417</v>
       </c>
       <c r="AL2" s="1">
-        <v>978.362000</v>
+        <v>978.36199999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.603600</v>
+        <v>-79.6036</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>38971.288897</v>
+        <v>38971.288896999999</v>
       </c>
       <c r="AP2" s="1">
         <v>10.825358</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.686000</v>
+        <v>986.68600000000004</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.228400</v>
+        <v>-91.228399999999993</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>38981.831859</v>
+        <v>38981.831858999998</v>
       </c>
       <c r="AU2" s="1">
         <v>10.828287</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.569000</v>
+        <v>996.56899999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.875000</v>
+        <v>-108.875</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>38993.047398</v>
+        <v>38993.047398000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>10.831402</v>
+        <v>10.831402000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.860000</v>
+        <v>1004.86</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.585000</v>
+        <v>-124.58499999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>39004.022870</v>
+        <v>39004.022870000001</v>
       </c>
       <c r="BE2" s="1">
         <v>10.834451</v>
       </c>
       <c r="BF2" s="1">
-        <v>1043.250000</v>
+        <v>1043.25</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.812000</v>
+        <v>-196.81200000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>39015.098041</v>
+        <v>39015.098040999997</v>
       </c>
       <c r="BJ2" s="1">
         <v>10.837527</v>
       </c>
       <c r="BK2" s="1">
-        <v>1109.580000</v>
+        <v>1109.58</v>
       </c>
       <c r="BL2" s="1">
-        <v>-314.578000</v>
+        <v>-314.57799999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>39026.177177</v>
+        <v>39026.177176999998</v>
       </c>
       <c r="BO2" s="1">
         <v>10.840605</v>
       </c>
       <c r="BP2" s="1">
-        <v>1217.770000</v>
+        <v>1217.77</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-500.584000</v>
+        <v>-500.584</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>39037.216634</v>
+        <v>39037.216633999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>10.843671</v>
+        <v>10.843671000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1340.150000</v>
+        <v>1340.15</v>
       </c>
       <c r="BV2" s="1">
-        <v>-704.856000</v>
+        <v>-704.85599999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>39047.852351</v>
+        <v>39047.852351000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>10.846626</v>
+        <v>10.846626000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1476.780000</v>
+        <v>1476.78</v>
       </c>
       <c r="CA2" s="1">
-        <v>-922.866000</v>
+        <v>-922.86599999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>39059.271245</v>
+        <v>39059.271245000004</v>
       </c>
       <c r="CD2" s="1">
         <v>10.849798</v>
       </c>
       <c r="CE2" s="1">
-        <v>1835.670000</v>
+        <v>1835.67</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1441.130000</v>
+        <v>-1441.13</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>38888.997150</v>
+        <v>38888.997150000003</v>
       </c>
       <c r="B3" s="1">
-        <v>10.802499</v>
+        <v>10.802498999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>906.451000</v>
+        <v>906.45100000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-180.487000</v>
+        <v>-180.48699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>38899.410161</v>
       </c>
       <c r="G3" s="1">
-        <v>10.805392</v>
+        <v>10.805391999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>921.277000</v>
+        <v>921.27700000000004</v>
       </c>
       <c r="I3" s="1">
-        <v>-154.200000</v>
+        <v>-154.19999999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>38909.571203</v>
@@ -768,497 +1184,497 @@
         <v>10.808214</v>
       </c>
       <c r="M3" s="1">
-        <v>942.259000</v>
+        <v>942.25900000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-113.011000</v>
+        <v>-113.011</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>38919.771430</v>
+        <v>38919.771430000001</v>
       </c>
       <c r="Q3" s="1">
         <v>10.811048</v>
       </c>
       <c r="R3" s="1">
-        <v>949.317000</v>
+        <v>949.31700000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-99.202500</v>
+        <v>-99.202500000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>38930.299548</v>
+        <v>38930.299548000003</v>
       </c>
       <c r="V3" s="1">
         <v>10.813972</v>
       </c>
       <c r="W3" s="1">
-        <v>956.725000</v>
+        <v>956.72500000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-86.453400</v>
+        <v>-86.453400000000002</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>38940.461082</v>
+        <v>38940.461082000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>10.816795</v>
+        <v>10.816795000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>965.261000</v>
+        <v>965.26099999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.321200</v>
+        <v>-76.321200000000005</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>38950.720797</v>
+        <v>38950.720797000002</v>
       </c>
       <c r="AF3" s="1">
         <v>10.819645</v>
       </c>
       <c r="AG3" s="1">
-        <v>970.606000</v>
+        <v>970.60599999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.705600</v>
+        <v>-74.705600000000004</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>38961.121408</v>
+        <v>38961.121407999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>10.822534</v>
+        <v>10.822533999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>978.401000</v>
+        <v>978.40099999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.601900</v>
+        <v>-79.601900000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>38971.718434</v>
+        <v>38971.718434000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>10.825477</v>
+        <v>10.825476999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.677000</v>
+        <v>986.67700000000002</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.223800</v>
+        <v>-91.223799999999997</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>38982.248531</v>
+        <v>38982.248530999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>10.828402</v>
+        <v>10.828402000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.592000</v>
+        <v>996.59199999999998</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.866000</v>
+        <v>-108.866</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>38993.433284</v>
+        <v>38993.433283999999</v>
       </c>
       <c r="AZ3" s="1">
         <v>10.831509</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.860000</v>
+        <v>1004.86</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.583000</v>
+        <v>-124.583</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>39004.398839</v>
+        <v>39004.398839000001</v>
       </c>
       <c r="BE3" s="1">
         <v>10.834555</v>
       </c>
       <c r="BF3" s="1">
-        <v>1043.260000</v>
+        <v>1043.26</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.840000</v>
+        <v>-196.84</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>39015.519639</v>
+        <v>39015.519638999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>10.837644</v>
+        <v>10.837643999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1109.590000</v>
+        <v>1109.5899999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-314.590000</v>
+        <v>-314.58999999999997</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>39026.996569</v>
+        <v>39026.996569000003</v>
       </c>
       <c r="BO3" s="1">
-        <v>10.840832</v>
+        <v>10.840832000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-500.582000</v>
+        <v>-500.58199999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>39037.638731</v>
+        <v>39037.638730999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>10.843789</v>
+        <v>10.843788999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1340.240000</v>
+        <v>1340.24</v>
       </c>
       <c r="BV3" s="1">
-        <v>-704.994000</v>
+        <v>-704.99400000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>39048.330527</v>
+        <v>39048.330526999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>10.846758</v>
+        <v>10.846757999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1476.720000</v>
+        <v>1476.72</v>
       </c>
       <c r="CA3" s="1">
-        <v>-922.902000</v>
+        <v>-922.90200000000004</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>39059.837676</v>
+        <v>39059.837676000003</v>
       </c>
       <c r="CD3" s="1">
         <v>10.849955</v>
       </c>
       <c r="CE3" s="1">
-        <v>1835.970000</v>
+        <v>1835.97</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1440.800000</v>
+        <v>-1440.8</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>38889.348318</v>
+        <v>38889.348317999997</v>
       </c>
       <c r="B4" s="1">
         <v>10.802597</v>
       </c>
       <c r="C4" s="1">
-        <v>906.589000</v>
+        <v>906.58900000000006</v>
       </c>
       <c r="D4" s="1">
-        <v>-180.390000</v>
+        <v>-180.39</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>38899.753923</v>
+        <v>38899.753922999997</v>
       </c>
       <c r="G4" s="1">
-        <v>10.805487</v>
+        <v>10.805486999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>920.886000</v>
+        <v>920.88599999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-153.638000</v>
+        <v>-153.63800000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>38909.920416</v>
+        <v>38909.920416000001</v>
       </c>
       <c r="L4" s="1">
         <v>10.808311</v>
       </c>
       <c r="M4" s="1">
-        <v>942.215000</v>
+        <v>942.21500000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-112.945000</v>
+        <v>-112.94499999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>38920.116182</v>
+        <v>38920.116181999998</v>
       </c>
       <c r="Q4" s="1">
         <v>10.811143</v>
       </c>
       <c r="R4" s="1">
-        <v>949.289000</v>
+        <v>949.28899999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-99.250600</v>
+        <v>-99.250600000000006</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>38930.720159</v>
+        <v>38930.720158999997</v>
       </c>
       <c r="V4" s="1">
-        <v>10.814089</v>
+        <v>10.814088999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>956.757000</v>
+        <v>956.75699999999995</v>
       </c>
       <c r="X4" s="1">
-        <v>-86.484100</v>
+        <v>-86.484099999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>38940.802297</v>
+        <v>38940.802297000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>10.816890</v>
+        <v>10.816890000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>965.277000</v>
+        <v>965.27700000000004</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.395600</v>
+        <v>-76.395600000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>38951.035296</v>
+        <v>38951.035296000002</v>
       </c>
       <c r="AF4" s="1">
         <v>10.819732</v>
       </c>
       <c r="AG4" s="1">
-        <v>970.583000</v>
+        <v>970.58299999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.703100</v>
+        <v>-74.703100000000006</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>38961.472114</v>
+        <v>38961.472113999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>10.822631</v>
+        <v>10.822630999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>978.370000</v>
+        <v>978.37</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.592000</v>
+        <v>-79.591999999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>38972.079025</v>
+        <v>38972.079024999999</v>
       </c>
       <c r="AP4" s="1">
         <v>10.825578</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.666000</v>
+        <v>986.66600000000005</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.221500</v>
+        <v>-91.221500000000006</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>38982.612564</v>
+        <v>38982.612564000003</v>
       </c>
       <c r="AU4" s="1">
         <v>10.828503</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.580000</v>
+        <v>996.58</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.870000</v>
+        <v>-108.87</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>38994.153475</v>
+        <v>38994.153474999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>10.831709</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.840000</v>
+        <v>1004.84</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.598000</v>
+        <v>-124.598</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>39005.123511</v>
+        <v>39005.123510999998</v>
       </c>
       <c r="BE4" s="1">
         <v>10.834757</v>
       </c>
       <c r="BF4" s="1">
-        <v>1043.240000</v>
+        <v>1043.24</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.846000</v>
+        <v>-196.846</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>39015.880754</v>
+        <v>39015.880753999998</v>
       </c>
       <c r="BJ4" s="1">
         <v>10.837745</v>
       </c>
       <c r="BK4" s="1">
-        <v>1109.590000</v>
+        <v>1109.5899999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-314.544000</v>
+        <v>-314.54399999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>39027.412711</v>
+        <v>39027.412710999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>10.840948</v>
+        <v>10.840947999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1217.770000</v>
+        <v>1217.77</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-500.597000</v>
+        <v>-500.59699999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>39038.061817</v>
+        <v>39038.061817000002</v>
       </c>
       <c r="BT4" s="1">
         <v>10.843906</v>
       </c>
       <c r="BU4" s="1">
-        <v>1340.140000</v>
+        <v>1340.14</v>
       </c>
       <c r="BV4" s="1">
-        <v>-705.112000</v>
+        <v>-705.11199999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>39049.070556</v>
+        <v>39049.070555999999</v>
       </c>
       <c r="BY4" s="1">
         <v>10.846964</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1476.620000</v>
+        <v>1476.62</v>
       </c>
       <c r="CA4" s="1">
-        <v>-922.893000</v>
+        <v>-922.89300000000003</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>39060.673972</v>
+        <v>39060.673971999997</v>
       </c>
       <c r="CD4" s="1">
         <v>10.850187</v>
       </c>
       <c r="CE4" s="1">
-        <v>1836.320000</v>
+        <v>1836.32</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1442.070000</v>
+        <v>-1442.07</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>38889.688573</v>
+        <v>38889.688572999999</v>
       </c>
       <c r="B5" s="1">
-        <v>10.802691</v>
+        <v>10.802690999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>906.357000</v>
+        <v>906.35699999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-180.558000</v>
+        <v>-180.55799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>38900.098608</v>
@@ -1267,178 +1683,178 @@
         <v>10.805583</v>
       </c>
       <c r="H5" s="1">
-        <v>920.986000</v>
+        <v>920.98599999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-154.508000</v>
+        <v>-154.50800000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>38910.375715</v>
+        <v>38910.375715000002</v>
       </c>
       <c r="L5" s="1">
-        <v>10.808438</v>
+        <v>10.808438000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>942.243000</v>
+        <v>942.24300000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-112.982000</v>
+        <v>-112.982</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>38920.818980</v>
+        <v>38920.818979999996</v>
       </c>
       <c r="Q5" s="1">
         <v>10.811339</v>
       </c>
       <c r="R5" s="1">
-        <v>949.267000</v>
+        <v>949.26700000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-99.263500</v>
+        <v>-99.263499999999993</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>38930.989482</v>
+        <v>38930.989481999997</v>
       </c>
       <c r="V5" s="1">
         <v>10.814164</v>
       </c>
       <c r="W5" s="1">
-        <v>956.706000</v>
+        <v>956.70600000000002</v>
       </c>
       <c r="X5" s="1">
-        <v>-86.530900</v>
+        <v>-86.530900000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>38941.149529</v>
+        <v>38941.149529000002</v>
       </c>
       <c r="AA5" s="1">
         <v>10.816986</v>
       </c>
       <c r="AB5" s="1">
-        <v>965.132000</v>
+        <v>965.13199999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.338200</v>
+        <v>-76.338200000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>38951.376539</v>
+        <v>38951.376538999997</v>
       </c>
       <c r="AF5" s="1">
         <v>10.819827</v>
       </c>
       <c r="AG5" s="1">
-        <v>970.606000</v>
+        <v>970.60599999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.707000</v>
+        <v>-74.706999999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>38961.818783</v>
+        <v>38961.818783000002</v>
       </c>
       <c r="AK5" s="1">
         <v>10.822727</v>
       </c>
       <c r="AL5" s="1">
-        <v>978.354000</v>
+        <v>978.35400000000004</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.618100</v>
+        <v>-79.618099999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>38972.439616</v>
+        <v>38972.439616000003</v>
       </c>
       <c r="AP5" s="1">
         <v>10.825678</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.675000</v>
+        <v>986.67499999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.218800</v>
+        <v>-91.218800000000002</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>38983.342179</v>
+        <v>38983.342178999999</v>
       </c>
       <c r="AU5" s="1">
         <v>10.828706</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.598000</v>
+        <v>996.59799999999996</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.876000</v>
+        <v>-108.876</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>38994.508652</v>
+        <v>38994.508651999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>10.831808</v>
+        <v>10.831808000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.860000</v>
+        <v>1004.86</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.571000</v>
+        <v>-124.571</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>39005.512357</v>
       </c>
       <c r="BE5" s="1">
-        <v>10.834865</v>
+        <v>10.834865000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1043.250000</v>
+        <v>1043.25</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.817000</v>
+        <v>-196.81700000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>39016.257687</v>
+        <v>39016.257686999998</v>
       </c>
       <c r="BJ5" s="1">
         <v>10.837849</v>
       </c>
       <c r="BK5" s="1">
-        <v>1109.560000</v>
+        <v>1109.56</v>
       </c>
       <c r="BL5" s="1">
-        <v>-314.577000</v>
+        <v>-314.577</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>39028.118059</v>
@@ -1447,966 +1863,966 @@
         <v>10.841144</v>
       </c>
       <c r="BP5" s="1">
-        <v>1217.740000</v>
+        <v>1217.74</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-500.609000</v>
+        <v>-500.60899999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>39038.802872</v>
       </c>
       <c r="BT5" s="1">
-        <v>10.844112</v>
+        <v>10.844112000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1340.170000</v>
+        <v>1340.17</v>
       </c>
       <c r="BV5" s="1">
-        <v>-705.111000</v>
+        <v>-705.11099999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>39049.195549</v>
+        <v>39049.195548999996</v>
       </c>
       <c r="BY5" s="1">
         <v>10.846999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1476.740000</v>
+        <v>1476.74</v>
       </c>
       <c r="CA5" s="1">
-        <v>-922.983000</v>
+        <v>-922.98299999999995</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>39060.907088</v>
       </c>
       <c r="CD5" s="1">
-        <v>10.850252</v>
+        <v>10.850251999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1837.400000</v>
+        <v>1837.4</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1440.790000</v>
+        <v>-1440.79</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>38890.121582</v>
       </c>
       <c r="B6" s="1">
-        <v>10.802812</v>
+        <v>10.802811999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>906.351000</v>
+        <v>906.351</v>
       </c>
       <c r="D6" s="1">
-        <v>-180.630000</v>
+        <v>-180.63</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>38900.549472</v>
+        <v>38900.549471999999</v>
       </c>
       <c r="G6" s="1">
-        <v>10.805708</v>
+        <v>10.805707999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>920.985000</v>
+        <v>920.98500000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-154.124000</v>
+        <v>-154.124</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>38910.610323</v>
+        <v>38910.610323000001</v>
       </c>
       <c r="L6" s="1">
         <v>10.808503</v>
       </c>
       <c r="M6" s="1">
-        <v>942.348000</v>
+        <v>942.34799999999996</v>
       </c>
       <c r="N6" s="1">
-        <v>-112.887000</v>
+        <v>-112.887</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>38921.170149</v>
+        <v>38921.170148999998</v>
       </c>
       <c r="Q6" s="1">
         <v>10.811436</v>
       </c>
       <c r="R6" s="1">
-        <v>949.238000</v>
+        <v>949.23800000000006</v>
       </c>
       <c r="S6" s="1">
-        <v>-99.243800</v>
+        <v>-99.243799999999993</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>38931.333672</v>
+        <v>38931.333672000001</v>
       </c>
       <c r="V6" s="1">
         <v>10.814259</v>
       </c>
       <c r="W6" s="1">
-        <v>956.751000</v>
+        <v>956.75099999999998</v>
       </c>
       <c r="X6" s="1">
-        <v>-86.430500</v>
+        <v>-86.430499999999995</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>38941.499672</v>
+        <v>38941.499671999998</v>
       </c>
       <c r="AA6" s="1">
         <v>10.817083</v>
       </c>
       <c r="AB6" s="1">
-        <v>965.259000</v>
+        <v>965.25900000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.446800</v>
+        <v>-76.446799999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>38951.720267</v>
+        <v>38951.720266999997</v>
       </c>
       <c r="AF6" s="1">
         <v>10.819922</v>
       </c>
       <c r="AG6" s="1">
-        <v>970.617000</v>
+        <v>970.61699999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.682800</v>
+        <v>-74.6828</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>38962.516157</v>
+        <v>38962.516156999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>10.822921</v>
+        <v>10.822920999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>978.358000</v>
+        <v>978.35799999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.627600</v>
+        <v>-79.627600000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>38973.159681</v>
+        <v>38973.159680999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>10.825878</v>
+        <v>10.825877999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.670000</v>
+        <v>986.67</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.227500</v>
+        <v>-91.227500000000006</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>38983.736001</v>
+        <v>38983.736000999997</v>
       </c>
       <c r="AU6" s="1">
         <v>10.828816</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.587000</v>
+        <v>996.58699999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.873000</v>
+        <v>-108.873</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>38994.868242</v>
+        <v>38994.868241999997</v>
       </c>
       <c r="AZ6" s="1">
         <v>10.831908</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.840000</v>
+        <v>1004.84</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.567000</v>
+        <v>-124.56699999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>39005.872451</v>
+        <v>39005.872451000003</v>
       </c>
       <c r="BE6" s="1">
         <v>10.834965</v>
       </c>
       <c r="BF6" s="1">
-        <v>1043.250000</v>
+        <v>1043.25</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.863000</v>
+        <v>-196.863</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>39016.939717</v>
+        <v>39016.939717000001</v>
       </c>
       <c r="BJ6" s="1">
         <v>10.838039</v>
       </c>
       <c r="BK6" s="1">
-        <v>1109.610000</v>
+        <v>1109.6099999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-314.605000</v>
+        <v>-314.60500000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>39028.233622</v>
       </c>
       <c r="BO6" s="1">
-        <v>10.841176</v>
+        <v>10.841176000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1217.770000</v>
+        <v>1217.77</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-500.598000</v>
+        <v>-500.59800000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>39038.939272</v>
+        <v>39038.939272000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>10.844150</v>
+        <v>10.844150000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1340.120000</v>
+        <v>1340.12</v>
       </c>
       <c r="BV6" s="1">
-        <v>-705.248000</v>
+        <v>-705.24800000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>39049.622106</v>
+        <v>39049.622106000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>10.847117</v>
+        <v>10.847117000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1476.730000</v>
+        <v>1476.73</v>
       </c>
       <c r="CA6" s="1">
-        <v>-922.957000</v>
+        <v>-922.95699999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>39061.441244</v>
+        <v>39061.441244000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>10.850400</v>
+        <v>10.8504</v>
       </c>
       <c r="CE6" s="1">
-        <v>1835.980000</v>
+        <v>1835.98</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1441.300000</v>
+        <v>-1441.3</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>38890.390414</v>
+        <v>38890.390414000001</v>
       </c>
       <c r="B7" s="1">
-        <v>10.802886</v>
+        <v>10.802886000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>906.443000</v>
+        <v>906.44299999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-180.487000</v>
+        <v>-180.48699999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>38900.793044</v>
+        <v>38900.793043999998</v>
       </c>
       <c r="G7" s="1">
         <v>10.805776</v>
       </c>
       <c r="H7" s="1">
-        <v>920.898000</v>
+        <v>920.89800000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-153.971000</v>
+        <v>-153.971</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>38910.954546</v>
+        <v>38910.954546000001</v>
       </c>
       <c r="L7" s="1">
         <v>10.808598</v>
       </c>
       <c r="M7" s="1">
-        <v>942.249000</v>
+        <v>942.24900000000002</v>
       </c>
       <c r="N7" s="1">
-        <v>-112.895000</v>
+        <v>-112.895</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>38921.517843</v>
+        <v>38921.517843000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>10.811533</v>
+        <v>10.811533000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>949.299000</v>
+        <v>949.29899999999998</v>
       </c>
       <c r="S7" s="1">
-        <v>-99.216300</v>
+        <v>-99.216300000000004</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>38931.677398</v>
       </c>
       <c r="V7" s="1">
-        <v>10.814355</v>
+        <v>10.814355000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>956.671000</v>
+        <v>956.67100000000005</v>
       </c>
       <c r="X7" s="1">
-        <v>-86.471200</v>
+        <v>-86.471199999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>38942.195695</v>
+        <v>38942.195695000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>10.817277</v>
+        <v>10.817277000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>965.283000</v>
+        <v>965.28300000000002</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.351700</v>
+        <v>-76.351699999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>38952.408684</v>
+        <v>38952.408684000002</v>
       </c>
       <c r="AF7" s="1">
         <v>10.820114</v>
       </c>
       <c r="AG7" s="1">
-        <v>970.596000</v>
+        <v>970.596</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.679300</v>
+        <v>-74.679299999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>38962.867325</v>
+        <v>38962.867324999999</v>
       </c>
       <c r="AK7" s="1">
         <v>10.823019</v>
       </c>
       <c r="AL7" s="1">
-        <v>978.348000</v>
+        <v>978.34799999999996</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.605400</v>
+        <v>-79.605400000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>38973.520435</v>
+        <v>38973.520434999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>10.825978</v>
+        <v>10.825977999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.689000</v>
+        <v>986.68899999999996</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.207000</v>
+        <v>-91.206999999999994</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>38984.100064</v>
+        <v>38984.100063999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>10.828917</v>
+        <v>10.828917000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.582000</v>
+        <v>996.58199999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.883000</v>
+        <v>-108.883</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>38995.539299</v>
+        <v>38995.539298999996</v>
       </c>
       <c r="AZ7" s="1">
         <v>10.832094</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.860000</v>
+        <v>1004.86</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.592000</v>
+        <v>-124.592</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>39006.541059</v>
+        <v>39006.541059000003</v>
       </c>
       <c r="BE7" s="1">
-        <v>10.835150</v>
+        <v>10.835150000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1043.230000</v>
+        <v>1043.23</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.853000</v>
+        <v>-196.85300000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>39017.409428</v>
+        <v>39017.409427999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>10.838169</v>
+        <v>10.838169000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1109.590000</v>
+        <v>1109.5899999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-314.547000</v>
+        <v>-314.54700000000003</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>39028.658198</v>
+        <v>39028.658197999997</v>
       </c>
       <c r="BO7" s="1">
         <v>10.841294</v>
       </c>
       <c r="BP7" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-500.594000</v>
+        <v>-500.59399999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>39039.346000</v>
+        <v>39039.345999999998</v>
       </c>
       <c r="BT7" s="1">
         <v>10.844263</v>
       </c>
       <c r="BU7" s="1">
-        <v>1340.090000</v>
+        <v>1340.09</v>
       </c>
       <c r="BV7" s="1">
-        <v>-705.214000</v>
+        <v>-705.21400000000006</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>39050.037225</v>
       </c>
       <c r="BY7" s="1">
-        <v>10.847233</v>
+        <v>10.847232999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1476.850000</v>
+        <v>1476.85</v>
       </c>
       <c r="CA7" s="1">
-        <v>-923.032000</v>
+        <v>-923.03200000000004</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>39062.002746</v>
+        <v>39062.002745999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>10.850556</v>
+        <v>10.850555999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1836.680000</v>
+        <v>1836.68</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1440.630000</v>
+        <v>-1440.63</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>38890.732651</v>
+        <v>38890.732650999998</v>
       </c>
       <c r="B8" s="1">
-        <v>10.802981</v>
+        <v>10.802981000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>906.563000</v>
+        <v>906.56299999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-180.467000</v>
+        <v>-180.46700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>38901.137765</v>
+        <v>38901.137764999999</v>
       </c>
       <c r="G8" s="1">
-        <v>10.805872</v>
+        <v>10.805872000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>920.867000</v>
+        <v>920.86699999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-154.055000</v>
+        <v>-154.05500000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>38911.302242</v>
+        <v>38911.302241999998</v>
       </c>
       <c r="L8" s="1">
         <v>10.808695</v>
       </c>
       <c r="M8" s="1">
-        <v>942.095000</v>
+        <v>942.09500000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-112.797000</v>
+        <v>-112.797</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>38922.215250</v>
+        <v>38922.215250000001</v>
       </c>
       <c r="Q8" s="1">
         <v>10.811726</v>
       </c>
       <c r="R8" s="1">
-        <v>949.306000</v>
+        <v>949.30600000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-99.194500</v>
+        <v>-99.194500000000005</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>38932.363400</v>
+        <v>38932.363400000002</v>
       </c>
       <c r="V8" s="1">
-        <v>10.814545</v>
+        <v>10.814545000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>956.761000</v>
+        <v>956.76099999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-86.423600</v>
+        <v>-86.423599999999993</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>38942.545737</v>
       </c>
       <c r="AA8" s="1">
-        <v>10.817374</v>
+        <v>10.817373999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>965.191000</v>
+        <v>965.19100000000003</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.449500</v>
+        <v>-76.4495</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>38952.750922</v>
+        <v>38952.750921999999</v>
       </c>
       <c r="AF8" s="1">
         <v>10.820209</v>
       </c>
       <c r="AG8" s="1">
-        <v>970.584000</v>
+        <v>970.58399999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.644000</v>
+        <v>-74.644000000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>38963.216013</v>
+        <v>38963.216012999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>10.823116</v>
+        <v>10.823116000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>978.358000</v>
+        <v>978.35799999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.613700</v>
+        <v>-79.613699999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>38973.878511</v>
+        <v>38973.878511000003</v>
       </c>
       <c r="AP8" s="1">
         <v>10.826077</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.663000</v>
+        <v>986.66300000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.225100</v>
+        <v>-91.225099999999998</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>38984.773170</v>
+        <v>38984.77317</v>
       </c>
       <c r="AU8" s="1">
-        <v>10.829104</v>
+        <v>10.829103999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.589000</v>
+        <v>996.58900000000006</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.885000</v>
+        <v>-108.88500000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>38995.946017</v>
+        <v>38995.946017000002</v>
       </c>
       <c r="AZ8" s="1">
         <v>10.832207</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.860000</v>
+        <v>1004.86</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.581000</v>
+        <v>-124.581</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>39006.992418</v>
+        <v>39006.992418000002</v>
       </c>
       <c r="BE8" s="1">
         <v>10.835276</v>
       </c>
       <c r="BF8" s="1">
-        <v>1043.250000</v>
+        <v>1043.25</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.875000</v>
+        <v>-196.875</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>39017.809173</v>
+        <v>39017.809173000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>10.838280</v>
+        <v>10.838279999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1109.610000</v>
+        <v>1109.6099999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-314.580000</v>
+        <v>-314.58</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>39029.053973</v>
+        <v>39029.053973000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>10.841404</v>
+        <v>10.841404000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1217.740000</v>
+        <v>1217.74</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-500.614000</v>
+        <v>-500.61399999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>39039.777976</v>
+        <v>39039.777975999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>10.844383</v>
+        <v>10.844383000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1340.060000</v>
+        <v>1340.06</v>
       </c>
       <c r="BV8" s="1">
-        <v>-705.276000</v>
+        <v>-705.27599999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>39050.492058</v>
+        <v>39050.492058000003</v>
       </c>
       <c r="BY8" s="1">
-        <v>10.847359</v>
+        <v>10.847359000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1476.820000</v>
+        <v>1476.82</v>
       </c>
       <c r="CA8" s="1">
-        <v>-922.987000</v>
+        <v>-922.98699999999997</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>39063.035913</v>
       </c>
       <c r="CD8" s="1">
-        <v>10.850843</v>
+        <v>10.850842999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1837.490000</v>
+        <v>1837.49</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1441.560000</v>
+        <v>-1441.56</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>38891.069472</v>
+        <v>38891.069472000003</v>
       </c>
       <c r="B9" s="1">
         <v>10.803075</v>
       </c>
       <c r="C9" s="1">
-        <v>906.413000</v>
+        <v>906.41300000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-180.654000</v>
+        <v>-180.654</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>38901.484429</v>
+        <v>38901.484428999996</v>
       </c>
       <c r="G9" s="1">
         <v>10.805968</v>
       </c>
       <c r="H9" s="1">
-        <v>920.686000</v>
+        <v>920.68600000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-154.079000</v>
+        <v>-154.07900000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>38911.996640</v>
+        <v>38911.996639999998</v>
       </c>
       <c r="L9" s="1">
         <v>10.808888</v>
       </c>
       <c r="M9" s="1">
-        <v>942.310000</v>
+        <v>942.31</v>
       </c>
       <c r="N9" s="1">
-        <v>-112.769000</v>
+        <v>-112.76900000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>38922.565891</v>
+        <v>38922.565890999998</v>
       </c>
       <c r="Q9" s="1">
         <v>10.811824</v>
       </c>
       <c r="R9" s="1">
-        <v>949.290000</v>
+        <v>949.29</v>
       </c>
       <c r="S9" s="1">
-        <v>-99.246100</v>
+        <v>-99.246099999999998</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>38932.709108</v>
+        <v>38932.709108000003</v>
       </c>
       <c r="V9" s="1">
         <v>10.814641</v>
       </c>
       <c r="W9" s="1">
-        <v>956.755000</v>
+        <v>956.755</v>
       </c>
       <c r="X9" s="1">
-        <v>-86.505800</v>
+        <v>-86.505799999999994</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>38942.893431</v>
+        <v>38942.893430999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>10.817470</v>
+        <v>10.81747</v>
       </c>
       <c r="AB9" s="1">
-        <v>965.172000</v>
+        <v>965.17200000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.538500</v>
+        <v>-76.538499999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>38953.097625</v>
+        <v>38953.097625000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>10.820305</v>
+        <v>10.820304999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>970.598000</v>
+        <v>970.59799999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.696700</v>
+        <v>-74.696700000000007</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>38963.873735</v>
+        <v>38963.873735000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>10.823298</v>
+        <v>10.823297999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>978.351000</v>
+        <v>978.351</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.603500</v>
+        <v>-79.603499999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>38974.325407</v>
+        <v>38974.325406999997</v>
       </c>
       <c r="AP9" s="1">
         <v>10.826202</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.664000</v>
+        <v>986.66399999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.216400</v>
+        <v>-91.216399999999993</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>38985.226015</v>
@@ -2415,392 +2831,392 @@
         <v>10.829229</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.578000</v>
+        <v>996.57799999999997</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.883000</v>
+        <v>-108.883</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>38996.331936</v>
+        <v>38996.331936000002</v>
       </c>
       <c r="AZ9" s="1">
         <v>10.832314</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.870000</v>
+        <v>1004.87</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.587000</v>
+        <v>-124.587</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>39007.350071</v>
+        <v>39007.350071000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>10.835375</v>
+        <v>10.835375000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1043.230000</v>
+        <v>1043.23</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.837000</v>
+        <v>-196.83699999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>39018.181172</v>
+        <v>39018.181171999997</v>
       </c>
       <c r="BJ9" s="1">
         <v>10.838384</v>
       </c>
       <c r="BK9" s="1">
-        <v>1109.560000</v>
+        <v>1109.56</v>
       </c>
       <c r="BL9" s="1">
-        <v>-314.572000</v>
+        <v>-314.572</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>39029.477060</v>
+        <v>39029.477059999997</v>
       </c>
       <c r="BO9" s="1">
         <v>10.841521</v>
       </c>
       <c r="BP9" s="1">
-        <v>1217.720000</v>
+        <v>1217.72</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-500.606000</v>
+        <v>-500.60599999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>39040.198614</v>
+        <v>39040.198614000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>10.844500</v>
+        <v>10.8445</v>
       </c>
       <c r="BU9" s="1">
-        <v>1340.010000</v>
+        <v>1340.01</v>
       </c>
       <c r="BV9" s="1">
-        <v>-705.308000</v>
+        <v>-705.30799999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>39050.938952</v>
+        <v>39050.938951999997</v>
       </c>
       <c r="BY9" s="1">
         <v>10.847483</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1476.630000</v>
+        <v>1476.63</v>
       </c>
       <c r="CA9" s="1">
-        <v>-923.046000</v>
+        <v>-923.04600000000005</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>39063.569080</v>
+        <v>39063.569080000001</v>
       </c>
       <c r="CD9" s="1">
         <v>10.850991</v>
       </c>
       <c r="CE9" s="1">
-        <v>1837.130000</v>
+        <v>1837.13</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1440.510000</v>
+        <v>-1440.51</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>38891.755403</v>
+        <v>38891.755403000003</v>
       </c>
       <c r="B10" s="1">
         <v>10.803265</v>
       </c>
       <c r="C10" s="1">
-        <v>906.396000</v>
+        <v>906.39599999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-180.390000</v>
+        <v>-180.39</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>38902.206604</v>
+        <v>38902.206603999999</v>
       </c>
       <c r="G10" s="1">
-        <v>10.806169</v>
+        <v>10.806169000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>920.997000</v>
+        <v>920.99699999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-153.811000</v>
+        <v>-153.81100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>38912.343839</v>
+        <v>38912.343839000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.808984</v>
+        <v>10.808984000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>942.160000</v>
+        <v>942.16</v>
       </c>
       <c r="N10" s="1">
-        <v>-112.908000</v>
+        <v>-112.908</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>38922.911601</v>
       </c>
       <c r="Q10" s="1">
-        <v>10.811920</v>
+        <v>10.811920000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>949.271000</v>
+        <v>949.27099999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-99.262600</v>
+        <v>-99.262600000000006</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>38933.052344</v>
+        <v>38933.052344000003</v>
       </c>
       <c r="V10" s="1">
-        <v>10.814737</v>
+        <v>10.814736999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>956.714000</v>
+        <v>956.71400000000006</v>
       </c>
       <c r="X10" s="1">
-        <v>-86.507400</v>
+        <v>-86.507400000000004</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>38943.555095</v>
+        <v>38943.555095000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>10.817654</v>
+        <v>10.817653999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>965.262000</v>
+        <v>965.26199999999994</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.497500</v>
+        <v>-76.497500000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>38953.754330</v>
+        <v>38953.754330000003</v>
       </c>
       <c r="AF10" s="1">
         <v>10.820487</v>
       </c>
       <c r="AG10" s="1">
-        <v>970.588000</v>
+        <v>970.58799999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.671100</v>
+        <v>-74.671099999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>38964.257116</v>
+        <v>38964.257116000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>10.823405</v>
+        <v>10.823404999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>978.367000</v>
+        <v>978.36699999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.585600</v>
+        <v>-79.585599999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>38974.599694</v>
+        <v>38974.599693999997</v>
       </c>
       <c r="AP10" s="1">
         <v>10.826278</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.669000</v>
+        <v>986.66899999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.227100</v>
+        <v>-91.227099999999993</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>38985.593055</v>
+        <v>38985.593054999998</v>
       </c>
       <c r="AU10" s="1">
         <v>10.829331</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.579000</v>
+        <v>996.57899999999995</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.883000</v>
+        <v>-108.883</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>38996.692496</v>
+        <v>38996.692496000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>10.832415</v>
+        <v>10.832414999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.850000</v>
+        <v>1004.85</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.602000</v>
+        <v>-124.602</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>39007.710625</v>
       </c>
       <c r="BE10" s="1">
-        <v>10.835475</v>
+        <v>10.835475000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1043.260000</v>
+        <v>1043.26</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.848000</v>
+        <v>-196.84800000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>39018.608756</v>
+        <v>39018.608756000001</v>
       </c>
       <c r="BJ10" s="1">
         <v>10.838502</v>
       </c>
       <c r="BK10" s="1">
-        <v>1109.600000</v>
+        <v>1109.5999999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-314.558000</v>
+        <v>-314.55799999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>39029.874357</v>
+        <v>39029.874357000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>10.841632</v>
+        <v>10.841632000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1217.740000</v>
+        <v>1217.74</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-500.606000</v>
+        <v>-500.60599999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>39040.608277</v>
+        <v>39040.608276999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>10.844613</v>
+        <v>10.844613000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1339.950000</v>
+        <v>1339.95</v>
       </c>
       <c r="BV10" s="1">
-        <v>-705.353000</v>
+        <v>-705.35299999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>39051.395306</v>
+        <v>39051.395305999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>10.847610</v>
+        <v>10.84761</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1476.790000</v>
+        <v>1476.79</v>
       </c>
       <c r="CA10" s="1">
-        <v>-922.977000</v>
+        <v>-922.97699999999998</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>39064.086903</v>
+        <v>39064.086903000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>10.851135</v>
+        <v>10.851134999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1837.610000</v>
+        <v>1837.61</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1440.880000</v>
+        <v>-1440.88</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>38892.101146</v>
+        <v>38892.101146000001</v>
       </c>
       <c r="B11" s="1">
-        <v>10.803361</v>
+        <v>10.803361000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>906.419000</v>
+        <v>906.41899999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>-180.475000</v>
+        <v>-180.47499999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>38902.518096</v>
@@ -2809,13 +3225,13 @@
         <v>10.806255</v>
       </c>
       <c r="H11" s="1">
-        <v>920.968000</v>
+        <v>920.96799999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-153.744000</v>
+        <v>-153.744</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>38912.693519</v>
@@ -2824,28 +3240,28 @@
         <v>10.809082</v>
       </c>
       <c r="M11" s="1">
-        <v>942.140000</v>
+        <v>942.14</v>
       </c>
       <c r="N11" s="1">
-        <v>-112.933000</v>
+        <v>-112.93300000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>38923.569793</v>
+        <v>38923.569793000002</v>
       </c>
       <c r="Q11" s="1">
         <v>10.812103</v>
       </c>
       <c r="R11" s="1">
-        <v>949.240000</v>
+        <v>949.24</v>
       </c>
       <c r="S11" s="1">
-        <v>-99.217000</v>
+        <v>-99.216999999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>38933.705574</v>
@@ -2854,300 +3270,300 @@
         <v>10.814918</v>
       </c>
       <c r="W11" s="1">
-        <v>956.761000</v>
+        <v>956.76099999999997</v>
       </c>
       <c r="X11" s="1">
-        <v>-86.481300</v>
+        <v>-86.481300000000005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>38943.939034</v>
+        <v>38943.939034000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>10.817761</v>
+        <v>10.817761000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>965.222000</v>
+        <v>965.22199999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.490300</v>
+        <v>-76.490300000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>38954.128845</v>
+        <v>38954.128844999999</v>
       </c>
       <c r="AF11" s="1">
         <v>10.820591</v>
       </c>
       <c r="AG11" s="1">
-        <v>970.570000</v>
+        <v>970.57</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.689400</v>
+        <v>-74.689400000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>38964.609306</v>
+        <v>38964.609305999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>10.823503</v>
+        <v>10.823503000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>978.355000</v>
+        <v>978.35500000000002</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.602200</v>
+        <v>-79.602199999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>38974.959468</v>
+        <v>38974.959468000001</v>
       </c>
       <c r="AP11" s="1">
         <v>10.826378</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.680000</v>
+        <v>986.68</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.235000</v>
+        <v>-91.234999999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>38985.958595</v>
+        <v>38985.958594999996</v>
       </c>
       <c r="AU11" s="1">
         <v>10.829433</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.594000</v>
+        <v>996.59400000000005</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.885000</v>
+        <v>-108.88500000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>38997.117071</v>
+        <v>38997.117071000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>10.832533</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.850000</v>
+        <v>1004.85</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.574000</v>
+        <v>-124.574</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>39008.127793</v>
       </c>
       <c r="BE11" s="1">
-        <v>10.835591</v>
+        <v>10.835591000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1043.250000</v>
+        <v>1043.25</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.836000</v>
+        <v>-196.83600000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>39018.943555</v>
+        <v>39018.943554999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>10.838595</v>
       </c>
       <c r="BK11" s="1">
-        <v>1109.610000</v>
+        <v>1109.6099999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-314.594000</v>
+        <v>-314.59399999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>39030.297443</v>
+        <v>39030.297443000003</v>
       </c>
       <c r="BO11" s="1">
         <v>10.841749</v>
       </c>
       <c r="BP11" s="1">
-        <v>1217.780000</v>
+        <v>1217.78</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-500.583000</v>
+        <v>-500.58300000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>39041.023461</v>
+        <v>39041.023460999997</v>
       </c>
       <c r="BT11" s="1">
-        <v>10.844729</v>
+        <v>10.844728999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1339.960000</v>
+        <v>1339.96</v>
       </c>
       <c r="BV11" s="1">
-        <v>-705.396000</v>
+        <v>-705.39599999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>39051.843656</v>
+        <v>39051.843655999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>10.847734</v>
+        <v>10.847734000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1476.730000</v>
+        <v>1476.73</v>
       </c>
       <c r="CA11" s="1">
-        <v>-922.933000</v>
+        <v>-922.93299999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>39064.639969</v>
+        <v>39064.639969000003</v>
       </c>
       <c r="CD11" s="1">
         <v>10.851289</v>
       </c>
       <c r="CE11" s="1">
-        <v>1837.230000</v>
+        <v>1837.23</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1441.750000</v>
+        <v>-1441.75</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>38892.440875</v>
       </c>
       <c r="B12" s="1">
-        <v>10.803456</v>
+        <v>10.803456000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>906.231000</v>
+        <v>906.23099999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-180.611000</v>
+        <v>-180.61099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>38903.180286</v>
+        <v>38903.180286000003</v>
       </c>
       <c r="G12" s="1">
-        <v>10.806439</v>
+        <v>10.806438999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>920.659000</v>
+        <v>920.65899999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-154.293000</v>
+        <v>-154.29300000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>38913.343806</v>
+        <v>38913.343805999997</v>
       </c>
       <c r="L12" s="1">
         <v>10.809262</v>
       </c>
       <c r="M12" s="1">
-        <v>942.145000</v>
+        <v>942.14499999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-112.956000</v>
+        <v>-112.956</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>38923.956706</v>
+        <v>38923.956705999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>10.812210</v>
+        <v>10.81221</v>
       </c>
       <c r="R12" s="1">
-        <v>949.256000</v>
+        <v>949.25599999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-99.213200</v>
+        <v>-99.213200000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>38934.079753</v>
+        <v>38934.079752999998</v>
       </c>
       <c r="V12" s="1">
-        <v>10.815022</v>
+        <v>10.815022000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>956.785000</v>
+        <v>956.78499999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-86.485700</v>
+        <v>-86.485699999999994</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>38944.288181</v>
+        <v>38944.288181000004</v>
       </c>
       <c r="AA12" s="1">
-        <v>10.817858</v>
+        <v>10.817857999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>965.184000</v>
+        <v>965.18399999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.444200</v>
+        <v>-76.444199999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>38954.472536</v>
+        <v>38954.472536000001</v>
       </c>
       <c r="AF12" s="1">
         <v>10.820687</v>
       </c>
       <c r="AG12" s="1">
-        <v>970.618000</v>
+        <v>970.61800000000005</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.689500</v>
+        <v>-74.689499999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>38964.957466</v>
@@ -3156,225 +3572,225 @@
         <v>10.823599</v>
       </c>
       <c r="AL12" s="1">
-        <v>978.377000</v>
+        <v>978.37699999999995</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.614700</v>
+        <v>-79.614699999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>38975.390316</v>
+        <v>38975.390315999997</v>
       </c>
       <c r="AP12" s="1">
         <v>10.826497</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.689000</v>
+        <v>986.68899999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.220900</v>
+        <v>-91.2209</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>38986.376701</v>
+        <v>38986.376701000001</v>
       </c>
       <c r="AU12" s="1">
         <v>10.829549</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.609000</v>
+        <v>996.60900000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.894000</v>
+        <v>-108.89400000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>38997.407744</v>
+        <v>38997.407743999996</v>
       </c>
       <c r="AZ12" s="1">
         <v>10.832613</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.850000</v>
+        <v>1004.85</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.573000</v>
+        <v>-124.57299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>39008.436272</v>
+        <v>39008.436271999999</v>
       </c>
       <c r="BE12" s="1">
         <v>10.835677</v>
       </c>
       <c r="BF12" s="1">
-        <v>1043.270000</v>
+        <v>1043.27</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.857000</v>
+        <v>-196.857</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>39019.330898</v>
       </c>
       <c r="BJ12" s="1">
-        <v>10.838703</v>
+        <v>10.838703000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1109.560000</v>
+        <v>1109.56</v>
       </c>
       <c r="BL12" s="1">
-        <v>-314.590000</v>
+        <v>-314.58999999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>39030.691268</v>
+        <v>39030.691268000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>10.841859</v>
+        <v>10.841858999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-500.613000</v>
+        <v>-500.613</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>39041.436598</v>
       </c>
       <c r="BT12" s="1">
-        <v>10.844843</v>
+        <v>10.844842999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1339.870000</v>
+        <v>1339.87</v>
       </c>
       <c r="BV12" s="1">
-        <v>-705.337000</v>
+        <v>-705.33699999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>39052.299510</v>
+        <v>39052.299509999997</v>
       </c>
       <c r="BY12" s="1">
         <v>10.847861</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1476.660000</v>
+        <v>1476.66</v>
       </c>
       <c r="CA12" s="1">
-        <v>-923.064000</v>
+        <v>-923.06399999999996</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>39065.170662</v>
+        <v>39065.170661999997</v>
       </c>
       <c r="CD12" s="1">
         <v>10.851436</v>
       </c>
       <c r="CE12" s="1">
-        <v>1837.030000</v>
+        <v>1837.03</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1440.760000</v>
+        <v>-1440.76</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>38893.085176</v>
+        <v>38893.085176000001</v>
       </c>
       <c r="B13" s="1">
         <v>10.803635</v>
       </c>
       <c r="C13" s="1">
-        <v>906.416000</v>
+        <v>906.41600000000005</v>
       </c>
       <c r="D13" s="1">
-        <v>-180.360000</v>
+        <v>-180.36</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>38903.553243</v>
+        <v>38903.553243000002</v>
       </c>
       <c r="G13" s="1">
         <v>10.806543</v>
       </c>
       <c r="H13" s="1">
-        <v>921.160000</v>
+        <v>921.16</v>
       </c>
       <c r="I13" s="1">
-        <v>-154.044000</v>
+        <v>-154.04400000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>38913.731650</v>
+        <v>38913.731650000002</v>
       </c>
       <c r="L13" s="1">
-        <v>10.809370</v>
+        <v>10.809369999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>942.063000</v>
+        <v>942.06299999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-112.916000</v>
+        <v>-112.916</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>38924.303903</v>
       </c>
       <c r="Q13" s="1">
-        <v>10.812307</v>
+        <v>10.812307000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>949.294000</v>
+        <v>949.29399999999998</v>
       </c>
       <c r="S13" s="1">
-        <v>-99.206400</v>
+        <v>-99.206400000000002</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>38934.426226</v>
+        <v>38934.426226000003</v>
       </c>
       <c r="V13" s="1">
         <v>10.815118</v>
       </c>
       <c r="W13" s="1">
-        <v>956.798000</v>
+        <v>956.798</v>
       </c>
       <c r="X13" s="1">
-        <v>-86.499900</v>
+        <v>-86.499899999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>38944.637895</v>
@@ -3383,195 +3799,195 @@
         <v>10.817955</v>
       </c>
       <c r="AB13" s="1">
-        <v>965.258000</v>
+        <v>965.25800000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.436600</v>
+        <v>-76.436599999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>38954.798408</v>
+        <v>38954.798408000002</v>
       </c>
       <c r="AF13" s="1">
         <v>10.820777</v>
       </c>
       <c r="AG13" s="1">
-        <v>970.592000</v>
+        <v>970.59199999999998</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.711300</v>
+        <v>-74.711299999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>38965.389481</v>
+        <v>38965.389480999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>10.823719</v>
+        <v>10.823719000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>978.373000</v>
+        <v>978.37300000000005</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.595400</v>
+        <v>-79.595399999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>38975.679981</v>
+        <v>38975.679981000001</v>
       </c>
       <c r="AP13" s="1">
         <v>10.826578</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.687000</v>
+        <v>986.68700000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.232200</v>
+        <v>-91.232200000000006</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>38986.686701</v>
+        <v>38986.686700999999</v>
       </c>
       <c r="AU13" s="1">
         <v>10.829635</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.595000</v>
+        <v>996.59500000000003</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.880000</v>
+        <v>-108.88</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>38997.770302</v>
+        <v>38997.770301999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>10.832714</v>
+        <v>10.832713999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.850000</v>
+        <v>1004.85</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.571000</v>
+        <v>-124.571</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>39008.864853</v>
+        <v>39008.864852999999</v>
       </c>
       <c r="BE13" s="1">
         <v>10.835796</v>
       </c>
       <c r="BF13" s="1">
-        <v>1043.260000</v>
+        <v>1043.26</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.865000</v>
+        <v>-196.86500000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>39019.706369</v>
       </c>
       <c r="BJ13" s="1">
-        <v>10.838807</v>
+        <v>10.838806999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1109.580000</v>
+        <v>1109.58</v>
       </c>
       <c r="BL13" s="1">
-        <v>-314.569000</v>
+        <v>-314.56900000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>39031.111378</v>
+        <v>39031.111378000001</v>
       </c>
       <c r="BO13" s="1">
         <v>10.841975</v>
       </c>
       <c r="BP13" s="1">
-        <v>1217.780000</v>
+        <v>1217.78</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-500.583000</v>
+        <v>-500.58300000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>39041.872114</v>
+        <v>39041.872113999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>10.844964</v>
+        <v>10.844963999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1339.800000</v>
+        <v>1339.8</v>
       </c>
       <c r="BV13" s="1">
-        <v>-705.373000</v>
+        <v>-705.37300000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>39052.750343</v>
       </c>
       <c r="BY13" s="1">
-        <v>10.847986</v>
+        <v>10.847986000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1476.690000</v>
+        <v>1476.69</v>
       </c>
       <c r="CA13" s="1">
-        <v>-923.049000</v>
+        <v>-923.04899999999998</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>39065.688517</v>
+        <v>39065.688517000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>10.851580</v>
+        <v>10.85158</v>
       </c>
       <c r="CE13" s="1">
-        <v>1836.030000</v>
+        <v>1836.03</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1441.180000</v>
+        <v>-1441.18</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>38893.466600</v>
+        <v>38893.4666</v>
       </c>
       <c r="B14" s="1">
         <v>10.803741</v>
       </c>
       <c r="C14" s="1">
-        <v>906.357000</v>
+        <v>906.35699999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>-180.512000</v>
+        <v>-180.512</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>38903.895483</v>
@@ -3580,28 +3996,28 @@
         <v>10.806638</v>
       </c>
       <c r="H14" s="1">
-        <v>920.839000</v>
+        <v>920.83900000000006</v>
       </c>
       <c r="I14" s="1">
-        <v>-154.194000</v>
+        <v>-154.19399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>38914.075374</v>
       </c>
       <c r="L14" s="1">
-        <v>10.809465</v>
+        <v>10.809464999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>942.106000</v>
+        <v>942.10599999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-112.914000</v>
+        <v>-112.914</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>38924.657025</v>
@@ -3610,58 +4026,58 @@
         <v>10.812405</v>
       </c>
       <c r="R14" s="1">
-        <v>949.287000</v>
+        <v>949.28700000000003</v>
       </c>
       <c r="S14" s="1">
-        <v>-99.269100</v>
+        <v>-99.269099999999995</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>38934.772961</v>
+        <v>38934.772961000002</v>
       </c>
       <c r="V14" s="1">
         <v>10.815215</v>
       </c>
       <c r="W14" s="1">
-        <v>956.793000</v>
+        <v>956.79300000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-86.488900</v>
+        <v>-86.488900000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>38945.052548</v>
       </c>
       <c r="AA14" s="1">
-        <v>10.818070</v>
+        <v>10.818070000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>965.053000</v>
+        <v>965.053</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.445000</v>
+        <v>-76.444999999999993</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>38955.212071</v>
+        <v>38955.212071000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>10.820892</v>
+        <v>10.820892000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>970.599000</v>
+        <v>970.59900000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.676100</v>
+        <v>-74.676100000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>38965.664762</v>
@@ -3670,408 +4086,408 @@
         <v>10.823796</v>
       </c>
       <c r="AL14" s="1">
-        <v>978.354000</v>
+        <v>978.35400000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.610800</v>
+        <v>-79.610799999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>38976.038587</v>
+        <v>38976.038587000003</v>
       </c>
       <c r="AP14" s="1">
         <v>10.826677</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.672000</v>
+        <v>986.67200000000003</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.228500</v>
+        <v>-91.228499999999997</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>38987.050303</v>
+        <v>38987.050303000004</v>
       </c>
       <c r="AU14" s="1">
         <v>10.829736</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.607000</v>
+        <v>996.60699999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.900000</v>
+        <v>-108.9</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>38998.126925</v>
+        <v>38998.126924999997</v>
       </c>
       <c r="AZ14" s="1">
         <v>10.832813</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.850000</v>
+        <v>1004.85</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.567000</v>
+        <v>-124.56699999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>39009.460015</v>
+        <v>39009.460014999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>10.835961</v>
+        <v>10.835960999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1043.250000</v>
+        <v>1043.25</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.856000</v>
+        <v>-196.85599999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>39020.456320</v>
+        <v>39020.456319999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>10.839016</v>
+        <v>10.839016000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1109.560000</v>
+        <v>1109.56</v>
       </c>
       <c r="BL14" s="1">
-        <v>-314.544000</v>
+        <v>-314.54399999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>39031.509667</v>
+        <v>39031.509666999998</v>
       </c>
       <c r="BO14" s="1">
         <v>10.842086</v>
       </c>
       <c r="BP14" s="1">
-        <v>1217.780000</v>
+        <v>1217.78</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-500.645000</v>
+        <v>-500.64499999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>39042.257476</v>
+        <v>39042.257475999999</v>
       </c>
       <c r="BT14" s="1">
         <v>10.845072</v>
       </c>
       <c r="BU14" s="1">
-        <v>1339.730000</v>
+        <v>1339.73</v>
       </c>
       <c r="BV14" s="1">
-        <v>-705.307000</v>
+        <v>-705.30700000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>39053.206166</v>
+        <v>39053.206166000004</v>
       </c>
       <c r="BY14" s="1">
         <v>10.848113</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1476.720000</v>
+        <v>1476.72</v>
       </c>
       <c r="CA14" s="1">
-        <v>-923.000000</v>
+        <v>-923</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>39066.518058</v>
+        <v>39066.518058000001</v>
       </c>
       <c r="CD14" s="1">
         <v>10.851811</v>
       </c>
       <c r="CE14" s="1">
-        <v>1836.770000</v>
+        <v>1836.77</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1442.290000</v>
+        <v>-1442.29</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>38893.809833</v>
+        <v>38893.809832999999</v>
       </c>
       <c r="B15" s="1">
         <v>10.803836</v>
       </c>
       <c r="C15" s="1">
-        <v>906.321000</v>
+        <v>906.32100000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-180.513000</v>
+        <v>-180.51300000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>38904.240734</v>
+        <v>38904.240733999999</v>
       </c>
       <c r="G15" s="1">
-        <v>10.806734</v>
+        <v>10.806734000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>921.001000</v>
+        <v>921.00099999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>-153.585000</v>
+        <v>-153.58500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>38914.423564</v>
+        <v>38914.423563999997</v>
       </c>
       <c r="L15" s="1">
         <v>10.809562</v>
       </c>
       <c r="M15" s="1">
-        <v>942.270000</v>
+        <v>942.27</v>
       </c>
       <c r="N15" s="1">
-        <v>-112.859000</v>
+        <v>-112.85899999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>38925.077171</v>
+        <v>38925.077170999997</v>
       </c>
       <c r="Q15" s="1">
         <v>10.812521</v>
       </c>
       <c r="R15" s="1">
-        <v>949.305000</v>
+        <v>949.30499999999995</v>
       </c>
       <c r="S15" s="1">
-        <v>-99.233800</v>
+        <v>-99.233800000000002</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>38935.189601</v>
+        <v>38935.189600999998</v>
       </c>
       <c r="V15" s="1">
-        <v>10.815330</v>
+        <v>10.815329999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>956.735000</v>
+        <v>956.73500000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-86.484600</v>
+        <v>-86.4846</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>38945.347636</v>
+        <v>38945.347635999999</v>
       </c>
       <c r="AA15" s="1">
         <v>10.818152</v>
       </c>
       <c r="AB15" s="1">
-        <v>965.243000</v>
+        <v>965.24300000000005</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.404400</v>
+        <v>-76.404399999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>38955.509174</v>
+        <v>38955.509173999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>10.820975</v>
+        <v>10.820975000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>970.628000</v>
+        <v>970.62800000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.658800</v>
+        <v>-74.658799999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>38966.013944</v>
+        <v>38966.013943999998</v>
       </c>
       <c r="AK15" s="1">
         <v>10.823893</v>
       </c>
       <c r="AL15" s="1">
-        <v>978.365000</v>
+        <v>978.36500000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.630300</v>
+        <v>-79.630300000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>38976.399675</v>
+        <v>38976.399675000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>10.826778</v>
+        <v>10.826777999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.675000</v>
+        <v>986.67499999999995</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.230900</v>
+        <v>-91.230900000000005</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>38987.413872</v>
+        <v>38987.413871999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>10.829837</v>
+        <v>10.829836999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.599000</v>
+        <v>996.59900000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.896000</v>
+        <v>-108.896</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>38998.851614</v>
+        <v>38998.851613999999</v>
       </c>
       <c r="AZ15" s="1">
         <v>10.833014</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.840000</v>
+        <v>1004.84</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.572000</v>
+        <v>-124.572</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>39009.912399</v>
+        <v>39009.912399000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>10.836087</v>
+        <v>10.836086999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1043.250000</v>
+        <v>1043.25</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.845000</v>
+        <v>-196.845</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>39020.832784</v>
+        <v>39020.832783999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>10.839120</v>
+        <v>10.839119999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1109.600000</v>
+        <v>1109.5999999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-314.593000</v>
+        <v>-314.59300000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>39031.930770</v>
+        <v>39031.930769999999</v>
       </c>
       <c r="BO15" s="1">
         <v>10.842203</v>
       </c>
       <c r="BP15" s="1">
-        <v>1217.790000</v>
+        <v>1217.79</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-500.604000</v>
+        <v>-500.60399999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>39042.678579</v>
+        <v>39042.678578999999</v>
       </c>
       <c r="BT15" s="1">
         <v>10.845188</v>
       </c>
       <c r="BU15" s="1">
-        <v>1339.720000</v>
+        <v>1339.72</v>
       </c>
       <c r="BV15" s="1">
-        <v>-705.379000</v>
+        <v>-705.37900000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>39053.949670</v>
+        <v>39053.949670000002</v>
       </c>
       <c r="BY15" s="1">
         <v>10.848319</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1476.720000</v>
+        <v>1476.72</v>
       </c>
       <c r="CA15" s="1">
-        <v>-923.030000</v>
+        <v>-923.03</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>39066.754885</v>
+        <v>39066.754885000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>10.851876</v>
+        <v>10.851876000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1837.240000</v>
+        <v>1837.24</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1440.500000</v>
+        <v>-1440.5</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>38894.154552</v>
       </c>
@@ -4079,133 +4495,133 @@
         <v>10.803932</v>
       </c>
       <c r="C16" s="1">
-        <v>906.386000</v>
+        <v>906.38599999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-180.598000</v>
+        <v>-180.59800000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>38904.663787</v>
+        <v>38904.663786999998</v>
       </c>
       <c r="G16" s="1">
         <v>10.806851</v>
       </c>
       <c r="H16" s="1">
-        <v>921.245000</v>
+        <v>921.245</v>
       </c>
       <c r="I16" s="1">
-        <v>-154.331000</v>
+        <v>-154.33099999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>38914.851117</v>
+        <v>38914.851116999998</v>
       </c>
       <c r="L16" s="1">
-        <v>10.809681</v>
+        <v>10.809680999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>942.069000</v>
+        <v>942.06899999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-112.961000</v>
+        <v>-112.961</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>38925.352910</v>
+        <v>38925.352910000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>10.812598</v>
+        <v>10.812597999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>949.274000</v>
+        <v>949.274</v>
       </c>
       <c r="S16" s="1">
-        <v>-99.264500</v>
+        <v>-99.264499999999998</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>38935.476789</v>
       </c>
       <c r="V16" s="1">
-        <v>10.815410</v>
+        <v>10.81541</v>
       </c>
       <c r="W16" s="1">
-        <v>956.777000</v>
+        <v>956.77700000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-86.474600</v>
+        <v>-86.474599999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>38945.692883</v>
+        <v>38945.692883000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>10.818248</v>
+        <v>10.818248000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>965.198000</v>
+        <v>965.19799999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.392200</v>
+        <v>-76.392200000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>38955.852903</v>
+        <v>38955.852902999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>10.821070</v>
+        <v>10.821070000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>970.576000</v>
+        <v>970.57600000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.659500</v>
+        <v>-74.659499999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>38966.362137</v>
+        <v>38966.362136999996</v>
       </c>
       <c r="AK16" s="1">
-        <v>10.823989</v>
+        <v>10.823988999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>978.374000</v>
+        <v>978.37400000000002</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.616200</v>
+        <v>-79.616200000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>38977.120858</v>
+        <v>38977.120858000002</v>
       </c>
       <c r="AP16" s="1">
         <v>10.826978</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.686000</v>
+        <v>986.68600000000004</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.250600</v>
+        <v>-91.250600000000006</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>38988.146923</v>
@@ -4214,270 +4630,270 @@
         <v>10.830041</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.580000</v>
+        <v>996.58</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.878000</v>
+        <v>-108.878</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>38999.225596</v>
+        <v>38999.225595999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>10.833118</v>
+        <v>10.833118000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.860000</v>
+        <v>1004.86</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.586000</v>
+        <v>-124.586</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>39010.274942</v>
+        <v>39010.274941999996</v>
       </c>
       <c r="BE16" s="1">
-        <v>10.836187</v>
+        <v>10.836187000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1043.250000</v>
+        <v>1043.25</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.841000</v>
+        <v>-196.84100000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>39021.209247</v>
+        <v>39021.209246999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>10.839225</v>
+        <v>10.839225000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1109.580000</v>
+        <v>1109.58</v>
       </c>
       <c r="BL16" s="1">
-        <v>-314.606000</v>
+        <v>-314.60599999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>39032.631652</v>
+        <v>39032.631651999996</v>
       </c>
       <c r="BO16" s="1">
-        <v>10.842398</v>
+        <v>10.842397999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-500.622000</v>
+        <v>-500.62200000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>39043.395299</v>
+        <v>39043.395299000003</v>
       </c>
       <c r="BT16" s="1">
         <v>10.845388</v>
       </c>
       <c r="BU16" s="1">
-        <v>1339.670000</v>
+        <v>1339.67</v>
       </c>
       <c r="BV16" s="1">
-        <v>-705.314000</v>
+        <v>-705.31399999999996</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>39054.100948</v>
+        <v>39054.100947999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>10.848361</v>
+        <v>10.848361000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1476.950000</v>
+        <v>1476.95</v>
       </c>
       <c r="CA16" s="1">
-        <v>-923.139000</v>
+        <v>-923.13900000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>39067.289603</v>
+        <v>39067.289602999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>10.852025</v>
+        <v>10.852024999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1835.880000</v>
+        <v>1835.88</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1441.580000</v>
+        <v>-1441.58</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>38894.563286</v>
+        <v>38894.563285999997</v>
       </c>
       <c r="B17" s="1">
         <v>10.804045</v>
       </c>
       <c r="C17" s="1">
-        <v>906.306000</v>
+        <v>906.30600000000004</v>
       </c>
       <c r="D17" s="1">
-        <v>-180.487000</v>
+        <v>-180.48699999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>38904.945048</v>
+        <v>38904.945048000001</v>
       </c>
       <c r="G17" s="1">
         <v>10.806929</v>
       </c>
       <c r="H17" s="1">
-        <v>920.942000</v>
+        <v>920.94200000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-154.053000</v>
+        <v>-154.053</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>38915.123916</v>
+        <v>38915.123915999997</v>
       </c>
       <c r="L17" s="1">
-        <v>10.809757</v>
+        <v>10.809756999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>942.232000</v>
+        <v>942.23199999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-112.822000</v>
+        <v>-112.822</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>38925.703087</v>
+        <v>38925.703087000002</v>
       </c>
       <c r="Q17" s="1">
         <v>10.812695</v>
       </c>
       <c r="R17" s="1">
-        <v>949.270000</v>
+        <v>949.27</v>
       </c>
       <c r="S17" s="1">
-        <v>-99.216700</v>
+        <v>-99.216700000000003</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>38935.820016</v>
+        <v>38935.820015999998</v>
       </c>
       <c r="V17" s="1">
-        <v>10.815506</v>
+        <v>10.815505999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>956.709000</v>
+        <v>956.70899999999995</v>
       </c>
       <c r="X17" s="1">
-        <v>-86.444700</v>
+        <v>-86.444699999999997</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>38946.040546</v>
+        <v>38946.040545999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>10.818345</v>
+        <v>10.818345000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>965.302000</v>
+        <v>965.30200000000002</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.468100</v>
+        <v>-76.468100000000007</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>38956.196667</v>
+        <v>38956.196666999997</v>
       </c>
       <c r="AF17" s="1">
         <v>10.821166</v>
       </c>
       <c r="AG17" s="1">
-        <v>970.618000</v>
+        <v>970.61800000000005</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.734700</v>
+        <v>-74.734700000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>38967.056536</v>
+        <v>38967.056535999996</v>
       </c>
       <c r="AK17" s="1">
         <v>10.824182</v>
       </c>
       <c r="AL17" s="1">
-        <v>978.382000</v>
+        <v>978.38199999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.607700</v>
+        <v>-79.607699999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>38977.482478</v>
+        <v>38977.482477999998</v>
       </c>
       <c r="AP17" s="1">
         <v>10.827078</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.692000</v>
+        <v>986.69200000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.227100</v>
+        <v>-91.227099999999993</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>38988.535803</v>
+        <v>38988.535802999999</v>
       </c>
       <c r="AU17" s="1">
         <v>10.830149</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.603000</v>
+        <v>996.60299999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.911000</v>
+        <v>-108.911</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>38999.606494</v>
@@ -4486,739 +4902,739 @@
         <v>10.833224</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.850000</v>
+        <v>1004.85</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.574000</v>
+        <v>-124.574</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>39010.944574</v>
+        <v>39010.944574000001</v>
       </c>
       <c r="BE17" s="1">
         <v>10.836373</v>
       </c>
       <c r="BF17" s="1">
-        <v>1043.270000</v>
+        <v>1043.27</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.840000</v>
+        <v>-196.84</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>39021.894720</v>
+        <v>39021.894719999997</v>
       </c>
       <c r="BJ17" s="1">
-        <v>10.839415</v>
+        <v>10.839415000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1109.580000</v>
+        <v>1109.58</v>
       </c>
       <c r="BL17" s="1">
-        <v>-314.575000</v>
+        <v>-314.57499999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>39032.750160</v>
+        <v>39032.750160000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>10.842431</v>
+        <v>10.842430999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1217.750000</v>
+        <v>1217.75</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-500.589000</v>
+        <v>-500.589</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>39043.532727</v>
+        <v>39043.532726999998</v>
       </c>
       <c r="BT17" s="1">
         <v>10.845426</v>
       </c>
       <c r="BU17" s="1">
-        <v>1339.670000</v>
+        <v>1339.67</v>
       </c>
       <c r="BV17" s="1">
-        <v>-705.287000</v>
+        <v>-705.28700000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>39054.774047</v>
+        <v>39054.774046999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>10.848548</v>
+        <v>10.848547999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1476.660000</v>
+        <v>1476.66</v>
       </c>
       <c r="CA17" s="1">
-        <v>-922.945000</v>
+        <v>-922.94500000000005</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>39067.829746</v>
+        <v>39067.829746000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>10.852175</v>
+        <v>10.852175000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1837.540000</v>
+        <v>1837.54</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1441.690000</v>
+        <v>-1441.69</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>38894.853911</v>
+        <v>38894.853910999998</v>
       </c>
       <c r="B18" s="1">
         <v>10.804126</v>
       </c>
       <c r="C18" s="1">
-        <v>906.395000</v>
+        <v>906.39499999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-180.292000</v>
+        <v>-180.292</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>38905.288744</v>
+        <v>38905.288743999998</v>
       </c>
       <c r="G18" s="1">
-        <v>10.807025</v>
+        <v>10.807024999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>920.811000</v>
+        <v>920.81100000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-154.097000</v>
+        <v>-154.09700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>38915.470660</v>
+        <v>38915.470659999999</v>
       </c>
       <c r="L18" s="1">
         <v>10.809853</v>
       </c>
       <c r="M18" s="1">
-        <v>942.248000</v>
+        <v>942.24800000000005</v>
       </c>
       <c r="N18" s="1">
-        <v>-112.949000</v>
+        <v>-112.949</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>38926.050781</v>
+        <v>38926.050780999998</v>
       </c>
       <c r="Q18" s="1">
         <v>10.812792</v>
       </c>
       <c r="R18" s="1">
-        <v>949.270000</v>
+        <v>949.27</v>
       </c>
       <c r="S18" s="1">
-        <v>-99.199500</v>
+        <v>-99.1995</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>38936.163712</v>
+        <v>38936.163712000001</v>
       </c>
       <c r="V18" s="1">
-        <v>10.815601</v>
+        <v>10.815600999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>956.726000</v>
+        <v>956.726</v>
       </c>
       <c r="X18" s="1">
-        <v>-86.523300</v>
+        <v>-86.523300000000006</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>38946.738952</v>
       </c>
       <c r="AA18" s="1">
-        <v>10.818539</v>
+        <v>10.818538999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>965.265000</v>
+        <v>965.26499999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.369900</v>
+        <v>-76.369900000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>38956.884084</v>
+        <v>38956.884083999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>10.821357</v>
+        <v>10.821357000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>970.605000</v>
+        <v>970.60500000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.644100</v>
+        <v>-74.644099999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>38967.407207</v>
+        <v>38967.407206999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>10.824280</v>
+        <v>10.82428</v>
       </c>
       <c r="AL18" s="1">
-        <v>978.365000</v>
+        <v>978.36500000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.594700</v>
+        <v>-79.594700000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>38977.841081</v>
+        <v>38977.841080999999</v>
       </c>
       <c r="AP18" s="1">
         <v>10.827178</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.672000</v>
+        <v>986.67200000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.233200</v>
+        <v>-91.233199999999997</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>38988.902330</v>
+        <v>38988.902329999997</v>
       </c>
       <c r="AU18" s="1">
-        <v>10.830251</v>
+        <v>10.830251000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.591000</v>
+        <v>996.59100000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.872000</v>
+        <v>-108.872</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>39000.273795</v>
+        <v>39000.273795000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>10.833409</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.860000</v>
+        <v>1004.86</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.586000</v>
+        <v>-124.586</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>39011.387965</v>
+        <v>39011.387965000002</v>
       </c>
       <c r="BE18" s="1">
         <v>10.836497</v>
       </c>
       <c r="BF18" s="1">
-        <v>1043.230000</v>
+        <v>1043.23</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.846000</v>
+        <v>-196.846</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>39022.334671</v>
+        <v>39022.334670999997</v>
       </c>
       <c r="BJ18" s="1">
         <v>10.839537</v>
       </c>
       <c r="BK18" s="1">
-        <v>1109.610000</v>
+        <v>1109.6099999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-314.573000</v>
+        <v>-314.57299999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>39033.173778</v>
+        <v>39033.173777999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>10.842548</v>
+        <v>10.842548000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1217.740000</v>
+        <v>1217.74</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-500.618000</v>
+        <v>-500.61799999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>39044.165089</v>
+        <v>39044.165089000002</v>
       </c>
       <c r="BT18" s="1">
         <v>10.845601</v>
       </c>
       <c r="BU18" s="1">
-        <v>1339.640000</v>
+        <v>1339.64</v>
       </c>
       <c r="BV18" s="1">
-        <v>-705.294000</v>
+        <v>-705.29399999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>39055.265059</v>
+        <v>39055.265058999998</v>
       </c>
       <c r="BY18" s="1">
         <v>10.848685</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1476.700000</v>
+        <v>1476.7</v>
       </c>
       <c r="CA18" s="1">
-        <v>-923.137000</v>
+        <v>-923.13699999999994</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>39068.368900</v>
+        <v>39068.368900000001</v>
       </c>
       <c r="CD18" s="1">
         <v>10.852325</v>
       </c>
       <c r="CE18" s="1">
-        <v>1836.330000</v>
+        <v>1836.33</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1440.050000</v>
+        <v>-1440.05</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>38895.194662</v>
+        <v>38895.194662000002</v>
       </c>
       <c r="B19" s="1">
         <v>10.804221</v>
       </c>
       <c r="C19" s="1">
-        <v>906.334000</v>
+        <v>906.33399999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-180.281000</v>
+        <v>-180.28100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>38905.632979</v>
+        <v>38905.632979000002</v>
       </c>
       <c r="G19" s="1">
-        <v>10.807120</v>
+        <v>10.807119999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>921.032000</v>
+        <v>921.03200000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-154.125000</v>
+        <v>-154.125</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>38915.817324</v>
+        <v>38915.817324000003</v>
       </c>
       <c r="L19" s="1">
         <v>10.809949</v>
       </c>
       <c r="M19" s="1">
-        <v>942.062000</v>
+        <v>942.06200000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-112.976000</v>
+        <v>-112.976</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>38926.748156</v>
+        <v>38926.748156000001</v>
       </c>
       <c r="Q19" s="1">
         <v>10.812986</v>
       </c>
       <c r="R19" s="1">
-        <v>949.293000</v>
+        <v>949.29300000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-99.215200</v>
+        <v>-99.215199999999996</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>38936.851167</v>
+        <v>38936.851167000001</v>
       </c>
       <c r="V19" s="1">
         <v>10.815792</v>
       </c>
       <c r="W19" s="1">
-        <v>956.768000</v>
+        <v>956.76800000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-86.441300</v>
+        <v>-86.441299999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>38947.087105</v>
+        <v>38947.087104999999</v>
       </c>
       <c r="AA19" s="1">
         <v>10.818635</v>
       </c>
       <c r="AB19" s="1">
-        <v>965.200000</v>
+        <v>965.2</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.584500</v>
+        <v>-76.584500000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>38957.227828</v>
+        <v>38957.227828000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>10.821452</v>
+        <v>10.821452000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>970.626000</v>
+        <v>970.62599999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.683400</v>
+        <v>-74.683400000000006</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>38967.757409</v>
+        <v>38967.757408999998</v>
       </c>
       <c r="AK19" s="1">
         <v>10.824377</v>
       </c>
       <c r="AL19" s="1">
-        <v>978.359000</v>
+        <v>978.35900000000004</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.598700</v>
+        <v>-79.598699999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>38978.506712</v>
+        <v>38978.506712000002</v>
       </c>
       <c r="AP19" s="1">
         <v>10.827363</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.671000</v>
+        <v>986.67100000000005</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.243800</v>
+        <v>-91.243799999999993</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>38989.591519</v>
+        <v>38989.591519000001</v>
       </c>
       <c r="AU19" s="1">
         <v>10.830442</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.594000</v>
+        <v>996.59400000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.872000</v>
+        <v>-108.872</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>39000.690502</v>
+        <v>39000.690501999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>10.833525</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.850000</v>
+        <v>1004.85</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.589000</v>
+        <v>-124.589</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>39011.748556</v>
+        <v>39011.748555999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>10.836597</v>
+        <v>10.836596999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1043.240000</v>
+        <v>1043.24</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.854000</v>
+        <v>-196.85400000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>39022.711133</v>
+        <v>39022.711132999997</v>
       </c>
       <c r="BJ19" s="1">
         <v>10.839642</v>
       </c>
       <c r="BK19" s="1">
-        <v>1109.570000</v>
+        <v>1109.57</v>
       </c>
       <c r="BL19" s="1">
-        <v>-314.585000</v>
+        <v>-314.58499999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>39033.569588</v>
+        <v>39033.569587999998</v>
       </c>
       <c r="BO19" s="1">
         <v>10.842658</v>
       </c>
       <c r="BP19" s="1">
-        <v>1217.770000</v>
+        <v>1217.77</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-500.610000</v>
+        <v>-500.61</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>39044.397713</v>
+        <v>39044.397712999998</v>
       </c>
       <c r="BT19" s="1">
         <v>10.845666</v>
       </c>
       <c r="BU19" s="1">
-        <v>1339.600000</v>
+        <v>1339.6</v>
       </c>
       <c r="BV19" s="1">
-        <v>-705.202000</v>
+        <v>-705.202</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>39055.694138</v>
+        <v>39055.694137999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>10.848804</v>
+        <v>10.848803999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1476.820000</v>
+        <v>1476.82</v>
       </c>
       <c r="CA19" s="1">
-        <v>-923.003000</v>
+        <v>-923.00300000000004</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>39068.909008</v>
+        <v>39068.909008000002</v>
       </c>
       <c r="CD19" s="1">
         <v>10.852475</v>
       </c>
       <c r="CE19" s="1">
-        <v>1836.480000</v>
+        <v>1836.48</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1442.220000</v>
+        <v>-1442.22</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>38895.534948</v>
       </c>
       <c r="B20" s="1">
-        <v>10.804315</v>
+        <v>10.804315000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>906.339000</v>
+        <v>906.33900000000006</v>
       </c>
       <c r="D20" s="1">
-        <v>-180.347000</v>
+        <v>-180.34700000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>38906.321415</v>
+        <v>38906.321414999999</v>
       </c>
       <c r="G20" s="1">
         <v>10.807312</v>
       </c>
       <c r="H20" s="1">
-        <v>920.925000</v>
+        <v>920.92499999999995</v>
       </c>
       <c r="I20" s="1">
-        <v>-153.916000</v>
+        <v>-153.916</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>38916.510729</v>
+        <v>38916.510729000001</v>
       </c>
       <c r="L20" s="1">
-        <v>10.810142</v>
+        <v>10.810142000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>942.162000</v>
+        <v>942.16200000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-112.820000</v>
+        <v>-112.82</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>38927.097020</v>
+        <v>38927.097020000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>10.813083</v>
+        <v>10.813083000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>949.302000</v>
+        <v>949.30200000000002</v>
       </c>
       <c r="S20" s="1">
-        <v>-99.257100</v>
+        <v>-99.257099999999994</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>38937.196189</v>
+        <v>38937.196189000002</v>
       </c>
       <c r="V20" s="1">
-        <v>10.815888</v>
+        <v>10.815887999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>956.808000</v>
+        <v>956.80799999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-86.423900</v>
+        <v>-86.423900000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>38947.437281</v>
+        <v>38947.437280999999</v>
       </c>
       <c r="AA20" s="1">
         <v>10.818733</v>
       </c>
       <c r="AB20" s="1">
-        <v>965.233000</v>
+        <v>965.23299999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.463000</v>
+        <v>-76.462999999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>38957.876084</v>
+        <v>38957.876084000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>10.821632</v>
+        <v>10.821631999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>970.603000</v>
+        <v>970.60299999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.686200</v>
+        <v>-74.686199999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>38968.422517</v>
+        <v>38968.422516999999</v>
       </c>
       <c r="AK20" s="1">
         <v>10.824562</v>
       </c>
       <c r="AL20" s="1">
-        <v>978.375000</v>
+        <v>978.375</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.612500</v>
+        <v>-79.612499999999997</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>38978.954071</v>
@@ -5227,43 +5643,43 @@
         <v>10.827487</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.683000</v>
+        <v>986.68299999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.222600</v>
+        <v>-91.2226</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>38990.031225</v>
+        <v>38990.031224999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>10.830564</v>
+        <v>10.830564000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.582000</v>
+        <v>996.58199999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.876000</v>
+        <v>-108.876</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>39001.066218</v>
       </c>
       <c r="AZ20" s="1">
-        <v>10.833630</v>
+        <v>10.833629999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.850000</v>
+        <v>1004.85</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.563000</v>
+        <v>-124.563</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>39012.112621</v>
@@ -5272,664 +5688,664 @@
         <v>10.836698</v>
       </c>
       <c r="BF20" s="1">
-        <v>1043.260000</v>
+        <v>1043.26</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.856000</v>
+        <v>-196.85599999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>39023.085150</v>
+        <v>39023.085149999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>10.839746</v>
       </c>
       <c r="BK20" s="1">
-        <v>1109.600000</v>
+        <v>1109.5999999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-314.572000</v>
+        <v>-314.572</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>39033.992639</v>
+        <v>39033.992638999996</v>
       </c>
       <c r="BO20" s="1">
-        <v>10.842776</v>
+        <v>10.842776000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-500.625000</v>
+        <v>-500.625</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>39044.830257</v>
+        <v>39044.830257000001</v>
       </c>
       <c r="BT20" s="1">
         <v>10.845786</v>
       </c>
       <c r="BU20" s="1">
-        <v>1339.600000</v>
+        <v>1339.6</v>
       </c>
       <c r="BV20" s="1">
-        <v>-705.257000</v>
+        <v>-705.25699999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>39056.116194</v>
+        <v>39056.116194000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>10.848921</v>
+        <v>10.848921000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1476.770000</v>
+        <v>1476.77</v>
       </c>
       <c r="CA20" s="1">
-        <v>-922.943000</v>
+        <v>-922.94299999999998</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>39069.450192</v>
+        <v>39069.450191999997</v>
       </c>
       <c r="CD20" s="1">
         <v>10.852625</v>
       </c>
       <c r="CE20" s="1">
-        <v>1837.280000</v>
+        <v>1837.28</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1440.670000</v>
+        <v>-1440.67</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>38896.217449</v>
+        <v>38896.217449000003</v>
       </c>
       <c r="B21" s="1">
-        <v>10.804505</v>
+        <v>10.804505000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>906.389000</v>
+        <v>906.38900000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-180.415000</v>
+        <v>-180.41499999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>38906.669112</v>
+        <v>38906.669112000003</v>
       </c>
       <c r="G21" s="1">
-        <v>10.807408</v>
+        <v>10.807408000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>921.030000</v>
+        <v>921.03</v>
       </c>
       <c r="I21" s="1">
-        <v>-154.024000</v>
+        <v>-154.024</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>38916.857931</v>
+        <v>38916.857930999999</v>
       </c>
       <c r="L21" s="1">
         <v>10.810238</v>
       </c>
       <c r="M21" s="1">
-        <v>942.250000</v>
+        <v>942.25</v>
       </c>
       <c r="N21" s="1">
-        <v>-112.796000</v>
+        <v>-112.79600000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>38927.444043</v>
+        <v>38927.444043000003</v>
       </c>
       <c r="Q21" s="1">
         <v>10.813179</v>
       </c>
       <c r="R21" s="1">
-        <v>949.251000</v>
+        <v>949.25099999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-99.274900</v>
+        <v>-99.274900000000002</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>38937.540146</v>
+        <v>38937.540145999999</v>
       </c>
       <c r="V21" s="1">
-        <v>10.815983</v>
+        <v>10.815982999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>956.848000</v>
+        <v>956.84799999999996</v>
       </c>
       <c r="X21" s="1">
-        <v>-86.479500</v>
+        <v>-86.479500000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>38948.096961</v>
+        <v>38948.096961000003</v>
       </c>
       <c r="AA21" s="1">
         <v>10.818916</v>
       </c>
       <c r="AB21" s="1">
-        <v>965.272000</v>
+        <v>965.27200000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.443900</v>
+        <v>-76.443899999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>38958.257011</v>
+        <v>38958.257011000002</v>
       </c>
       <c r="AF21" s="1">
         <v>10.821738</v>
       </c>
       <c r="AG21" s="1">
-        <v>970.597000</v>
+        <v>970.59699999999998</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.710600</v>
+        <v>-74.710599999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>38968.801461</v>
+        <v>38968.801461000003</v>
       </c>
       <c r="AK21" s="1">
         <v>10.824667</v>
       </c>
       <c r="AL21" s="1">
-        <v>978.377000</v>
+        <v>978.37699999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.581900</v>
+        <v>-79.581900000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>38979.314201</v>
+        <v>38979.314201000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>10.827587</v>
+        <v>10.827586999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.679000</v>
+        <v>986.67899999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.214000</v>
+        <v>-91.213999999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>38990.396280</v>
+        <v>38990.396280000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>10.830666</v>
+        <v>10.830666000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.604000</v>
+        <v>996.60400000000004</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.872000</v>
+        <v>-108.872</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>39001.444170</v>
+        <v>39001.444170000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>10.833734</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.870000</v>
+        <v>1004.87</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.588000</v>
+        <v>-124.58799999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>39012.531244</v>
+        <v>39012.531243999998</v>
       </c>
       <c r="BE21" s="1">
         <v>10.836814</v>
       </c>
       <c r="BF21" s="1">
-        <v>1043.250000</v>
+        <v>1043.25</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.864000</v>
+        <v>-196.864</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>39023.500268</v>
+        <v>39023.500268000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>10.839861</v>
+        <v>10.839861000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1109.580000</v>
+        <v>1109.58</v>
       </c>
       <c r="BL21" s="1">
-        <v>-314.552000</v>
+        <v>-314.55200000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>39034.389471</v>
+        <v>39034.389471000002</v>
       </c>
       <c r="BO21" s="1">
         <v>10.842886</v>
       </c>
       <c r="BP21" s="1">
-        <v>1217.770000</v>
+        <v>1217.77</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-500.582000</v>
+        <v>-500.58199999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>39045.239921</v>
       </c>
       <c r="BT21" s="1">
-        <v>10.845900</v>
+        <v>10.8459</v>
       </c>
       <c r="BU21" s="1">
-        <v>1339.640000</v>
+        <v>1339.64</v>
       </c>
       <c r="BV21" s="1">
-        <v>-705.197000</v>
+        <v>-705.197</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>39056.538785</v>
+        <v>39056.538784999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>10.849039</v>
+        <v>10.849038999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1476.750000</v>
+        <v>1476.75</v>
       </c>
       <c r="CA21" s="1">
-        <v>-923.036000</v>
+        <v>-923.03599999999994</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>39069.988800</v>
+        <v>39069.988799999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>10.852775</v>
+        <v>10.852774999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1835.950000</v>
+        <v>1835.95</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1441.340000</v>
+        <v>-1441.34</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>38896.565616</v>
       </c>
       <c r="B22" s="1">
-        <v>10.804602</v>
+        <v>10.804601999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>906.472000</v>
+        <v>906.47199999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-180.319000</v>
+        <v>-180.31899999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>38907.012870</v>
+        <v>38907.012869999999</v>
       </c>
       <c r="G22" s="1">
         <v>10.807504</v>
       </c>
       <c r="H22" s="1">
-        <v>920.826000</v>
+        <v>920.82600000000002</v>
       </c>
       <c r="I22" s="1">
-        <v>-153.970000</v>
+        <v>-153.97</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>38917.203178</v>
+        <v>38917.203178000003</v>
       </c>
       <c r="L22" s="1">
-        <v>10.810334</v>
+        <v>10.810333999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>942.092000</v>
+        <v>942.09199999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>-112.799000</v>
+        <v>-112.79900000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>38928.103258</v>
+        <v>38928.103258000003</v>
       </c>
       <c r="Q22" s="1">
         <v>10.813362</v>
       </c>
       <c r="R22" s="1">
-        <v>949.230000</v>
+        <v>949.23</v>
       </c>
       <c r="S22" s="1">
-        <v>-99.267900</v>
+        <v>-99.267899999999997</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>38938.188416</v>
+        <v>38938.188415999997</v>
       </c>
       <c r="V22" s="1">
         <v>10.816163</v>
       </c>
       <c r="W22" s="1">
-        <v>956.723000</v>
+        <v>956.72299999999996</v>
       </c>
       <c r="X22" s="1">
-        <v>-86.439000</v>
+        <v>-86.438999999999993</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>38948.481857</v>
+        <v>38948.481856999999</v>
       </c>
       <c r="AA22" s="1">
         <v>10.819023</v>
       </c>
       <c r="AB22" s="1">
-        <v>965.241000</v>
+        <v>965.24099999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.399700</v>
+        <v>-76.399699999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>38958.602226</v>
+        <v>38958.602226000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>10.821834</v>
+        <v>10.821834000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>970.616000</v>
+        <v>970.61599999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.697100</v>
+        <v>-74.697100000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>38969.148196</v>
+        <v>38969.148196000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>10.824763</v>
+        <v>10.824763000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>978.372000</v>
+        <v>978.37199999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.605900</v>
+        <v>-79.605900000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>38979.674263</v>
+        <v>38979.674263000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>10.827687</v>
+        <v>10.827686999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.689000</v>
+        <v>986.68899999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.229100</v>
+        <v>-91.229100000000003</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>38990.758897</v>
       </c>
       <c r="AU22" s="1">
-        <v>10.830766</v>
+        <v>10.830766000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.580000</v>
+        <v>996.58</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.871000</v>
+        <v>-108.871</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>39001.859818</v>
+        <v>39001.859817999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>10.833850</v>
+        <v>10.83385</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.870000</v>
+        <v>1004.87</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.561000</v>
+        <v>-124.56100000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>39012.830858</v>
+        <v>39012.830858000001</v>
       </c>
       <c r="BE22" s="1">
         <v>10.836897</v>
       </c>
       <c r="BF22" s="1">
-        <v>1043.270000</v>
+        <v>1043.27</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.857000</v>
+        <v>-196.857</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>39023.844529</v>
+        <v>39023.844529000002</v>
       </c>
       <c r="BJ22" s="1">
         <v>10.839957</v>
       </c>
       <c r="BK22" s="1">
-        <v>1109.590000</v>
+        <v>1109.5899999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-314.553000</v>
+        <v>-314.553</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>39034.810045</v>
+        <v>39034.810044999998</v>
       </c>
       <c r="BO22" s="1">
         <v>10.843003</v>
       </c>
       <c r="BP22" s="1">
-        <v>1217.770000</v>
+        <v>1217.77</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-500.601000</v>
+        <v>-500.601</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>39045.668963</v>
+        <v>39045.668962999996</v>
       </c>
       <c r="BT22" s="1">
         <v>10.846019</v>
       </c>
       <c r="BU22" s="1">
-        <v>1339.560000</v>
+        <v>1339.56</v>
       </c>
       <c r="BV22" s="1">
-        <v>-705.168000</v>
+        <v>-705.16800000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>39056.966832</v>
+        <v>39056.966831999998</v>
       </c>
       <c r="BY22" s="1">
         <v>10.849157</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1476.790000</v>
+        <v>1476.79</v>
       </c>
       <c r="CA22" s="1">
-        <v>-922.981000</v>
+        <v>-922.98099999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>39070.530465</v>
+        <v>39070.530465000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>10.852925</v>
+        <v>10.852925000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1837.260000</v>
+        <v>1837.26</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1441.560000</v>
+        <v>-1441.56</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>38896.904404</v>
+        <v>38896.904404000001</v>
       </c>
       <c r="B23" s="1">
         <v>10.804696</v>
       </c>
       <c r="C23" s="1">
-        <v>906.353000</v>
+        <v>906.35299999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>-180.379000</v>
+        <v>-180.37899999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>38907.661110</v>
+        <v>38907.661110000001</v>
       </c>
       <c r="G23" s="1">
         <v>10.807684</v>
       </c>
       <c r="H23" s="1">
-        <v>921.009000</v>
+        <v>921.00900000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-154.001000</v>
+        <v>-154.001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>38917.864313</v>
+        <v>38917.864312999998</v>
       </c>
       <c r="L23" s="1">
         <v>10.810518</v>
       </c>
       <c r="M23" s="1">
-        <v>942.069000</v>
+        <v>942.06899999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-112.882000</v>
+        <v>-112.88200000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>38928.488162</v>
+        <v>38928.488162000001</v>
       </c>
       <c r="Q23" s="1">
         <v>10.813469</v>
       </c>
       <c r="R23" s="1">
-        <v>949.253000</v>
+        <v>949.25300000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-99.254700</v>
+        <v>-99.2547</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>38938.567357</v>
@@ -5938,467 +6354,467 @@
         <v>10.816269</v>
       </c>
       <c r="W23" s="1">
-        <v>956.735000</v>
+        <v>956.73500000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-86.413300</v>
+        <v>-86.413300000000007</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>38948.832031</v>
+        <v>38948.832030999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>10.819120</v>
+        <v>10.81912</v>
       </c>
       <c r="AB23" s="1">
-        <v>965.265000</v>
+        <v>965.26499999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.370600</v>
+        <v>-76.370599999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>38958.944963</v>
+        <v>38958.944963000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>10.821929</v>
+        <v>10.821929000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>970.642000</v>
+        <v>970.64200000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.664000</v>
+        <v>-74.664000000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>38969.497348</v>
+        <v>38969.497347999997</v>
       </c>
       <c r="AK23" s="1">
-        <v>10.824860</v>
+        <v>10.824859999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>978.354000</v>
+        <v>978.35400000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.609900</v>
+        <v>-79.609899999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>38980.093420</v>
+        <v>38980.093419999997</v>
       </c>
       <c r="AP23" s="1">
         <v>10.827804</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.672000</v>
+        <v>986.67200000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.231800</v>
+        <v>-91.231800000000007</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>38991.231048</v>
+        <v>38991.231048000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>10.830898</v>
+        <v>10.830897999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.613000</v>
+        <v>996.61300000000006</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.891000</v>
+        <v>-108.89100000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>39002.163864</v>
+        <v>39002.163864000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>10.833934</v>
+        <v>10.833933999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.870000</v>
+        <v>1004.87</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.577000</v>
+        <v>-124.577</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>39013.192938</v>
       </c>
       <c r="BE23" s="1">
-        <v>10.836998</v>
+        <v>10.836997999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1043.250000</v>
+        <v>1043.25</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.850000</v>
+        <v>-196.85</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>39024.231867</v>
+        <v>39024.231867000002</v>
       </c>
       <c r="BJ23" s="1">
         <v>10.840064</v>
       </c>
       <c r="BK23" s="1">
-        <v>1109.590000</v>
+        <v>1109.5899999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-314.588000</v>
+        <v>-314.58800000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>39035.207837</v>
+        <v>39035.207837000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>10.843113</v>
+        <v>10.843113000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-500.649000</v>
+        <v>-500.649</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>39046.093039</v>
+        <v>39046.093038999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>10.846137</v>
+        <v>10.846137000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1339.530000</v>
+        <v>1339.53</v>
       </c>
       <c r="BV23" s="1">
-        <v>-705.160000</v>
+        <v>-705.16</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>39057.382977</v>
+        <v>39057.382977000001</v>
       </c>
       <c r="BY23" s="1">
         <v>10.849273</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1476.750000</v>
+        <v>1476.75</v>
       </c>
       <c r="CA23" s="1">
-        <v>-922.969000</v>
+        <v>-922.96900000000005</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>39071.070575</v>
+        <v>39071.070574999998</v>
       </c>
       <c r="CD23" s="1">
         <v>10.853075</v>
       </c>
       <c r="CE23" s="1">
-        <v>1836.300000</v>
+        <v>1836.3</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1440.520000</v>
+        <v>-1440.52</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>38897.560578</v>
+        <v>38897.560577999997</v>
       </c>
       <c r="B24" s="1">
         <v>10.804878</v>
       </c>
       <c r="C24" s="1">
-        <v>906.417000</v>
+        <v>906.41700000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-180.509000</v>
+        <v>-180.50899999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>38908.047028</v>
+        <v>38908.047028000001</v>
       </c>
       <c r="G24" s="1">
         <v>10.807791</v>
       </c>
       <c r="H24" s="1">
-        <v>921.264000</v>
+        <v>921.26400000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-154.132000</v>
+        <v>-154.13200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>38918.240280</v>
+        <v>38918.240279999998</v>
       </c>
       <c r="L24" s="1">
         <v>10.810622</v>
       </c>
       <c r="M24" s="1">
-        <v>942.150000</v>
+        <v>942.15</v>
       </c>
       <c r="N24" s="1">
-        <v>-112.786000</v>
+        <v>-112.786</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>38928.835823</v>
+        <v>38928.835823000001</v>
       </c>
       <c r="Q24" s="1">
         <v>10.813566</v>
       </c>
       <c r="R24" s="1">
-        <v>949.277000</v>
+        <v>949.27700000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-99.225100</v>
+        <v>-99.225099999999998</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>38938.913533</v>
+        <v>38938.913532999999</v>
       </c>
       <c r="V24" s="1">
-        <v>10.816365</v>
+        <v>10.816364999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>956.803000</v>
+        <v>956.803</v>
       </c>
       <c r="X24" s="1">
-        <v>-86.488400</v>
+        <v>-86.488399999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>38949.178414</v>
+        <v>38949.178414000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>10.819216</v>
+        <v>10.819216000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>965.123000</v>
+        <v>965.12300000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.430300</v>
+        <v>-76.430300000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>38959.371522</v>
+        <v>38959.371522000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>10.822048</v>
+        <v>10.822048000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>970.624000</v>
+        <v>970.62400000000002</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.726600</v>
+        <v>-74.726600000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>38969.914485</v>
+        <v>38969.914485000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>10.824976</v>
+        <v>10.824975999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>978.376000</v>
+        <v>978.37599999999998</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.621600</v>
+        <v>-79.621600000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>38980.396933</v>
+        <v>38980.396933000004</v>
       </c>
       <c r="AP24" s="1">
         <v>10.827888</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.703000</v>
+        <v>986.70299999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.227300</v>
+        <v>-91.2273</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>38991.522696</v>
       </c>
       <c r="AU24" s="1">
-        <v>10.830979</v>
+        <v>10.830978999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.595000</v>
+        <v>996.59500000000003</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.899000</v>
+        <v>-108.899</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>39002.520520</v>
+        <v>39002.520519999998</v>
       </c>
       <c r="AZ24" s="1">
         <v>10.834033</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.850000</v>
+        <v>1004.85</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.572000</v>
+        <v>-124.572</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>39013.555999</v>
+        <v>39013.555998999997</v>
       </c>
       <c r="BE24" s="1">
         <v>10.837099</v>
       </c>
       <c r="BF24" s="1">
-        <v>1043.250000</v>
+        <v>1043.25</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.834000</v>
+        <v>-196.834</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>39024.610346</v>
+        <v>39024.610346000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>10.840170</v>
+        <v>10.840170000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1109.560000</v>
+        <v>1109.56</v>
       </c>
       <c r="BL24" s="1">
-        <v>-314.596000</v>
+        <v>-314.596</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>39035.628976</v>
       </c>
       <c r="BO24" s="1">
-        <v>10.843230</v>
+        <v>10.84323</v>
       </c>
       <c r="BP24" s="1">
-        <v>1217.780000</v>
+        <v>1217.78</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-500.632000</v>
+        <v>-500.63200000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>39046.513150</v>
+        <v>39046.513149999999</v>
       </c>
       <c r="BT24" s="1">
         <v>10.846254</v>
       </c>
       <c r="BU24" s="1">
-        <v>1339.510000</v>
+        <v>1339.51</v>
       </c>
       <c r="BV24" s="1">
-        <v>-705.123000</v>
+        <v>-705.12300000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>39057.829375</v>
+        <v>39057.829375000001</v>
       </c>
       <c r="BY24" s="1">
         <v>10.849397</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1476.730000</v>
+        <v>1476.73</v>
       </c>
       <c r="CA24" s="1">
-        <v>-922.972000</v>
+        <v>-922.97199999999998</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>39071.609726</v>
+        <v>39071.609726000002</v>
       </c>
       <c r="CD24" s="1">
         <v>10.853225</v>
       </c>
       <c r="CE24" s="1">
-        <v>1836.860000</v>
+        <v>1836.86</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1442.360000</v>
+        <v>-1442.36</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>38897.928612</v>
+        <v>38897.928612000003</v>
       </c>
       <c r="B25" s="1">
-        <v>10.804980</v>
+        <v>10.80498</v>
       </c>
       <c r="C25" s="1">
-        <v>906.507000</v>
+        <v>906.50699999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-180.192000</v>
+        <v>-180.19200000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>38908.389764</v>
@@ -6407,28 +6823,28 @@
         <v>10.807886</v>
       </c>
       <c r="H25" s="1">
-        <v>920.961000</v>
+        <v>920.96100000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-153.715000</v>
+        <v>-153.715</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>38918.584007</v>
+        <v>38918.584006999998</v>
       </c>
       <c r="L25" s="1">
         <v>10.810718</v>
       </c>
       <c r="M25" s="1">
-        <v>942.303000</v>
+        <v>942.303</v>
       </c>
       <c r="N25" s="1">
-        <v>-112.791000</v>
+        <v>-112.791</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>38929.188509</v>
@@ -6437,73 +6853,73 @@
         <v>10.813663</v>
       </c>
       <c r="R25" s="1">
-        <v>949.271000</v>
+        <v>949.27099999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-99.249900</v>
+        <v>-99.249899999999997</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>38939.328219</v>
+        <v>38939.328219000003</v>
       </c>
       <c r="V25" s="1">
-        <v>10.816480</v>
+        <v>10.81648</v>
       </c>
       <c r="W25" s="1">
-        <v>956.787000</v>
+        <v>956.78700000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-86.407100</v>
+        <v>-86.4071</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>38949.594383</v>
+        <v>38949.594383000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>10.819332</v>
+        <v>10.819331999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>965.185000</v>
+        <v>965.18499999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.360300</v>
+        <v>-76.360299999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>38959.631922</v>
       </c>
       <c r="AF25" s="1">
-        <v>10.822120</v>
+        <v>10.82212</v>
       </c>
       <c r="AG25" s="1">
-        <v>970.595000</v>
+        <v>970.59500000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.691700</v>
+        <v>-74.691699999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>38970.208115</v>
+        <v>38970.208115000001</v>
       </c>
       <c r="AK25" s="1">
         <v>10.825058</v>
       </c>
       <c r="AL25" s="1">
-        <v>978.361000</v>
+        <v>978.36099999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.616800</v>
+        <v>-79.616799999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>38980.757029</v>
@@ -6512,285 +6928,285 @@
         <v>10.827988</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.784000</v>
+        <v>986.78399999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.304700</v>
+        <v>-91.304699999999997</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>38991.851078</v>
       </c>
       <c r="AU25" s="1">
-        <v>10.831070</v>
+        <v>10.83107</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.574000</v>
+        <v>996.57399999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.886000</v>
+        <v>-108.886</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>39002.881576</v>
       </c>
       <c r="AZ25" s="1">
-        <v>10.834134</v>
+        <v>10.834134000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.860000</v>
+        <v>1004.86</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.551000</v>
+        <v>-124.551</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>39014.277658</v>
+        <v>39014.277657999999</v>
       </c>
       <c r="BE25" s="1">
         <v>10.837299</v>
       </c>
       <c r="BF25" s="1">
-        <v>1043.260000</v>
+        <v>1043.26</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.862000</v>
+        <v>-196.86199999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>39025.358778</v>
+        <v>39025.358778000002</v>
       </c>
       <c r="BJ25" s="1">
         <v>10.840377</v>
       </c>
       <c r="BK25" s="1">
-        <v>1109.580000</v>
+        <v>1109.58</v>
       </c>
       <c r="BL25" s="1">
-        <v>-314.592000</v>
+        <v>-314.59199999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>39036.027761</v>
+        <v>39036.027760999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>10.843341</v>
+        <v>10.843341000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1217.770000</v>
+        <v>1217.77</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-500.626000</v>
+        <v>-500.62599999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>39046.938749</v>
+        <v>39046.938749000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>10.846372</v>
+        <v>10.846372000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1339.520000</v>
+        <v>1339.52</v>
       </c>
       <c r="BV25" s="1">
-        <v>-705.154000</v>
+        <v>-705.154</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>39058.252960</v>
+        <v>39058.252959999998</v>
       </c>
       <c r="BY25" s="1">
         <v>10.849515</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1476.690000</v>
+        <v>1476.69</v>
       </c>
       <c r="CA25" s="1">
-        <v>-922.932000</v>
+        <v>-922.93200000000002</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>39072.459904</v>
+        <v>39072.459904000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>10.853461</v>
+        <v>10.853460999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1835.550000</v>
+        <v>1835.55</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1440.830000</v>
+        <v>-1440.83</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>38898.274322</v>
+        <v>38898.274321999997</v>
       </c>
       <c r="B26" s="1">
         <v>10.805076</v>
       </c>
       <c r="C26" s="1">
-        <v>906.467000</v>
+        <v>906.46699999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>-180.502000</v>
+        <v>-180.50200000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>38908.735941</v>
+        <v>38908.735940999999</v>
       </c>
       <c r="G26" s="1">
-        <v>10.807982</v>
+        <v>10.807982000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>921.350000</v>
+        <v>921.35</v>
       </c>
       <c r="I26" s="1">
-        <v>-154.074000</v>
+        <v>-154.07400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>38918.928759</v>
+        <v>38918.928759000002</v>
       </c>
       <c r="L26" s="1">
-        <v>10.810814</v>
+        <v>10.810814000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>942.138000</v>
+        <v>942.13800000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-112.896000</v>
+        <v>-112.896</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>38929.607626</v>
+        <v>38929.607625999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>10.813780</v>
+        <v>10.81378</v>
       </c>
       <c r="R26" s="1">
-        <v>949.270000</v>
+        <v>949.27</v>
       </c>
       <c r="S26" s="1">
-        <v>-99.285400</v>
+        <v>-99.285399999999996</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>38939.625293</v>
+        <v>38939.625292999997</v>
       </c>
       <c r="V26" s="1">
         <v>10.816563</v>
       </c>
       <c r="W26" s="1">
-        <v>956.757000</v>
+        <v>956.75699999999995</v>
       </c>
       <c r="X26" s="1">
-        <v>-86.496600</v>
+        <v>-86.496600000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>38949.889005</v>
+        <v>38949.889004999997</v>
       </c>
       <c r="AA26" s="1">
         <v>10.819414</v>
       </c>
       <c r="AB26" s="1">
-        <v>965.200000</v>
+        <v>965.2</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.426200</v>
+        <v>-76.426199999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>38959.976176</v>
+        <v>38959.976175999996</v>
       </c>
       <c r="AF26" s="1">
-        <v>10.822216</v>
+        <v>10.822215999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>970.588000</v>
+        <v>970.58799999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.654900</v>
+        <v>-74.654899999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>38970.553362</v>
+        <v>38970.553361999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>10.825154</v>
+        <v>10.825153999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>978.365000</v>
+        <v>978.36500000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.615500</v>
+        <v>-79.615499999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>38981.341327</v>
+        <v>38981.341327000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>10.828150</v>
+        <v>10.828150000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.669000</v>
+        <v>986.66899999999998</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.229500</v>
+        <v>-91.229500000000002</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>38992.582645</v>
+        <v>38992.582645000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>10.831273</v>
+        <v>10.831272999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.606000</v>
+        <v>996.60599999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.892000</v>
+        <v>-108.892</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>39003.595318</v>
@@ -6799,105 +7215,106 @@
         <v>10.834332</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.830000</v>
+        <v>1004.83</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.567000</v>
+        <v>-124.56699999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>39014.663545</v>
+        <v>39014.663545000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>10.837407</v>
+        <v>10.837407000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1043.240000</v>
+        <v>1043.24</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.833000</v>
+        <v>-196.833</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>39025.733259</v>
+        <v>39025.733259000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>10.840481</v>
       </c>
       <c r="BK26" s="1">
-        <v>1109.610000</v>
+        <v>1109.6099999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-314.576000</v>
+        <v>-314.57600000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>39036.446845</v>
+        <v>39036.446844999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>10.843457</v>
+        <v>10.843457000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1217.710000</v>
+        <v>1217.71</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-500.605000</v>
+        <v>-500.60500000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>39047.659406</v>
+        <v>39047.659405999999</v>
       </c>
       <c r="BT26" s="1">
         <v>10.846572</v>
       </c>
       <c r="BU26" s="1">
-        <v>1339.540000</v>
+        <v>1339.54</v>
       </c>
       <c r="BV26" s="1">
-        <v>-705.124000</v>
+        <v>-705.12400000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>39058.974669</v>
+        <v>39058.974669000003</v>
       </c>
       <c r="BY26" s="1">
         <v>10.849715</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1476.650000</v>
+        <v>1476.65</v>
       </c>
       <c r="CA26" s="1">
-        <v>-922.993000</v>
+        <v>-922.99300000000005</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>39072.689021</v>
+        <v>39072.689020999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>10.853525</v>
+        <v>10.853524999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1835.910000</v>
+        <v>1835.91</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1440.440000</v>
+        <v>-1440.44</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>